--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypajarino\Projects\2021.02.03 BUSCADOR PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA7967-62B9-4A0C-AA29-F1F35E21FD23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10ADE3B-1F49-4F1F-BA4B-C591C7B7D48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B99FABA6-DF95-4019-9921-2FEFF1CE1FF7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="279">
   <si>
     <t>Sociedad</t>
   </si>
@@ -77,6 +77,792 @@
   </si>
   <si>
     <t>Clave de referencia</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>0100A00003736</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>092017</t>
+  </si>
+  <si>
+    <t>GAS NATURAL SEPTIEMBRE 2017 CCA CH</t>
+  </si>
+  <si>
+    <t>080000132100702018</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0100A00003738</t>
+  </si>
+  <si>
+    <t>080000132300702018</t>
+  </si>
+  <si>
+    <t>0100A00003833</t>
+  </si>
+  <si>
+    <t>042017</t>
+  </si>
+  <si>
+    <t>GAS NATURAL ABRIL/17 CH</t>
+  </si>
+  <si>
+    <t>080000439600702018</t>
+  </si>
+  <si>
+    <t>0100A00003835</t>
+  </si>
+  <si>
+    <t>080000440600702018</t>
+  </si>
+  <si>
+    <t>3003A00000349</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>082020</t>
+  </si>
+  <si>
+    <t>Gas Natural</t>
+  </si>
+  <si>
+    <t>080000573100702021</t>
+  </si>
+  <si>
+    <t>0100A00003033</t>
+  </si>
+  <si>
+    <t>062016</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO-16 CCA CH</t>
+  </si>
+  <si>
+    <t>080000600800702017</t>
+  </si>
+  <si>
+    <t>0100A00003034</t>
+  </si>
+  <si>
+    <t>080000601800702017</t>
+  </si>
+  <si>
+    <t>0100A00003051</t>
+  </si>
+  <si>
+    <t>082016</t>
+  </si>
+  <si>
+    <t>GAS NATURAL AGOSTO-16 CCA CH</t>
+  </si>
+  <si>
+    <t>080000626000702017</t>
+  </si>
+  <si>
+    <t>0100A00003053</t>
+  </si>
+  <si>
+    <t>092016</t>
+  </si>
+  <si>
+    <t>GAS NATURAL SEPTIEMBRE-16 CCA CH</t>
+  </si>
+  <si>
+    <t>080000634300702017</t>
+  </si>
+  <si>
+    <t>0101A00000951</t>
+  </si>
+  <si>
+    <t>052016</t>
+  </si>
+  <si>
+    <t>GAS NATURAL MAYO-16 CCA NQ</t>
+  </si>
+  <si>
+    <t>080000646900702017</t>
+  </si>
+  <si>
+    <t>3001A00000526</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>052021</t>
+  </si>
+  <si>
+    <t>080000780200702021</t>
+  </si>
+  <si>
+    <t>3001A00000529</t>
+  </si>
+  <si>
+    <t>080000780300702021</t>
+  </si>
+  <si>
+    <t>3000A00001355</t>
+  </si>
+  <si>
+    <t>080000782000702021</t>
+  </si>
+  <si>
+    <t>3000A00001397</t>
+  </si>
+  <si>
+    <t>062021</t>
+  </si>
+  <si>
+    <t>080000946600702021</t>
+  </si>
+  <si>
+    <t>3001A00000536</t>
+  </si>
+  <si>
+    <t>080000946700702021</t>
+  </si>
+  <si>
+    <t>3001A00000533</t>
+  </si>
+  <si>
+    <t>080000946800702021</t>
+  </si>
+  <si>
+    <t>3001A00000532</t>
+  </si>
+  <si>
+    <t>080000946900702021</t>
+  </si>
+  <si>
+    <t>0100A00001477</t>
+  </si>
+  <si>
+    <t>062014</t>
+  </si>
+  <si>
+    <t>gas natural junio/14 cca CH</t>
+  </si>
+  <si>
+    <t>080001057100702014</t>
+  </si>
+  <si>
+    <t>0103A00000714</t>
+  </si>
+  <si>
+    <t>092013</t>
+  </si>
+  <si>
+    <t>RECONCILIACION SEPTIEMBRE-2013 NQ</t>
+  </si>
+  <si>
+    <t>080001095900702015</t>
+  </si>
+  <si>
+    <t>0104A00000784</t>
+  </si>
+  <si>
+    <t>102013</t>
+  </si>
+  <si>
+    <t>RECONCILIACION OCTUBRE-2013 NQ</t>
+  </si>
+  <si>
+    <t>080001097100702015</t>
+  </si>
+  <si>
+    <t>0100A00003300</t>
+  </si>
+  <si>
+    <t>062017</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO/17 CH</t>
+  </si>
+  <si>
+    <t>080001400000702017</t>
+  </si>
+  <si>
+    <t>0100A00003400</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO 2017 CC CH</t>
+  </si>
+  <si>
+    <t>080001522100702017</t>
+  </si>
+  <si>
+    <t>0100A00003398</t>
+  </si>
+  <si>
+    <t>080001523200702017</t>
+  </si>
+  <si>
+    <t>0100A00003449</t>
+  </si>
+  <si>
+    <t>012017</t>
+  </si>
+  <si>
+    <t>GAS NATURAL ENERO 2017 CH</t>
+  </si>
+  <si>
+    <t>080001713800702017</t>
+  </si>
+  <si>
+    <t>0100A00003451</t>
+  </si>
+  <si>
+    <t>080001715000702017</t>
+  </si>
+  <si>
+    <t>3000A00000243</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>112018</t>
+  </si>
+  <si>
+    <t>GAS NATURAL NOVIEMBRE/18</t>
+  </si>
+  <si>
+    <t>080001990500702018</t>
+  </si>
+  <si>
+    <t>3000A00000244</t>
+  </si>
+  <si>
+    <t>080001990700702018</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>0100A00002988</t>
+  </si>
+  <si>
+    <t>110000002000702018</t>
+  </si>
+  <si>
+    <t>0100A00002991</t>
+  </si>
+  <si>
+    <t>110000002100702018</t>
+  </si>
+  <si>
+    <t>0100A00003104</t>
+  </si>
+  <si>
+    <t>110000019000702018</t>
+  </si>
+  <si>
+    <t>0100A00003108</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3262</t>
+  </si>
+  <si>
+    <t>110000019100702018</t>
+  </si>
+  <si>
+    <t>0100A00002064</t>
+  </si>
+  <si>
+    <t>102016</t>
+  </si>
+  <si>
+    <t>FONDO FIDUCIARIO OCTUBRE/16 CH S/ND. 2566</t>
+  </si>
+  <si>
+    <t>110000021100702017</t>
+  </si>
+  <si>
+    <t>0100A00002169</t>
+  </si>
+  <si>
+    <t>BONIFICACION RES. ME Y M 212/16 SEPTIEMBRE/16</t>
+  </si>
+  <si>
+    <t>110000026700702017</t>
+  </si>
+  <si>
+    <t>0100A00002170</t>
+  </si>
+  <si>
+    <t>072016</t>
+  </si>
+  <si>
+    <t>BONIFICACION RES. ME Y M 212/16 JULIO/16</t>
+  </si>
+  <si>
+    <t>110000026800702017</t>
+  </si>
+  <si>
+    <t>0100A00001016</t>
+  </si>
+  <si>
+    <t>102014</t>
+  </si>
+  <si>
+    <t>FONDO FIDUCIARIO NQN OCTUBRE 2014 S/NC 1013</t>
+  </si>
+  <si>
+    <t>110000040100702014</t>
+  </si>
+  <si>
+    <t>0100A00002055</t>
+  </si>
+  <si>
+    <t>Fondo fiduciario Junio 2016 s/fc 2834</t>
+  </si>
+  <si>
+    <t>110000045300702017</t>
+  </si>
+  <si>
+    <t>3001A00000405</t>
+  </si>
+  <si>
+    <t>110000045400702021</t>
+  </si>
+  <si>
+    <t>0100A00000142</t>
+  </si>
+  <si>
+    <t>012012</t>
+  </si>
+  <si>
+    <t>RECONCILIACION GAS NATURAL ENERO/12 CH</t>
+  </si>
+  <si>
+    <t>110000046100702015</t>
+  </si>
+  <si>
+    <t>0100A00000145</t>
+  </si>
+  <si>
+    <t>110000046300702015</t>
+  </si>
+  <si>
+    <t>0100A00001781</t>
+  </si>
+  <si>
+    <t>Gas natural Junio 2016 CH</t>
+  </si>
+  <si>
+    <t>110000143600702016</t>
+  </si>
+  <si>
+    <t>0100A00001812</t>
+  </si>
+  <si>
+    <t>Fondo fiduciario Julio 2016 s/fc 1873</t>
+  </si>
+  <si>
+    <t>110000145100702016</t>
+  </si>
+  <si>
+    <t>0100A00001813</t>
+  </si>
+  <si>
+    <t>Gas natural Julio 2016 CH</t>
+  </si>
+  <si>
+    <t>110000145300702016</t>
+  </si>
+  <si>
+    <t>0100A00002513</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO 2017 CC CH NC-2506</t>
+  </si>
+  <si>
+    <t>110000166700702017</t>
+  </si>
+  <si>
+    <t>0100A00002502</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO/17 CH AJUSTE DOC-3300</t>
+  </si>
+  <si>
+    <t>110000166800702017</t>
+  </si>
+  <si>
+    <t>0100A00002504</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO/17 CH s/FC 3302</t>
+  </si>
+  <si>
+    <t>110000170200702017</t>
+  </si>
+  <si>
+    <t>0100A00002511</t>
+  </si>
+  <si>
+    <t>Fdo Fiduciario Junio 2017 NC-2503</t>
+  </si>
+  <si>
+    <t>110000170500702017</t>
+  </si>
+  <si>
+    <t>0100A00002510</t>
+  </si>
+  <si>
+    <t>Fdo Fiduciario Junio 2017 NC-2502</t>
+  </si>
+  <si>
+    <t>110000170600702017</t>
+  </si>
+  <si>
+    <t>0100A00002512</t>
+  </si>
+  <si>
+    <t>Fdo Fiduciario Junio 2017 NC-2504</t>
+  </si>
+  <si>
+    <t>110000171800702017</t>
+  </si>
+  <si>
+    <t>0100A00002646</t>
+  </si>
+  <si>
+    <t>052017</t>
+  </si>
+  <si>
+    <t>Bonificaciones Gas Natural Mayo/17 CCA CH</t>
+  </si>
+  <si>
+    <t>110000205300702017</t>
+  </si>
+  <si>
+    <t>0012A00003626</t>
+  </si>
+  <si>
+    <t>BONIFICACION CCA TF</t>
+  </si>
+  <si>
+    <t>110000205900702017</t>
+  </si>
+  <si>
+    <t>0100A00002570</t>
+  </si>
+  <si>
+    <t>GAS NATURAL ENERO/17 CH</t>
+  </si>
+  <si>
+    <t>110000206400702017</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>0100A00003741</t>
+  </si>
+  <si>
+    <t>112017</t>
+  </si>
+  <si>
+    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 3799</t>
+  </si>
+  <si>
+    <t>130000004500702018</t>
+  </si>
+  <si>
+    <t>0104A00003552</t>
+  </si>
+  <si>
+    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 2938</t>
+  </si>
+  <si>
+    <t>130000004600702018</t>
+  </si>
+  <si>
+    <t>0101A00001375</t>
+  </si>
+  <si>
+    <t>FONDO FID NOVIEMBRE 2017 NQ S/FC 1181</t>
+  </si>
+  <si>
+    <t>130000004700702018</t>
+  </si>
+  <si>
+    <t>0100A00003743</t>
+  </si>
+  <si>
+    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 3801</t>
+  </si>
+  <si>
+    <t>130000004800702018</t>
+  </si>
+  <si>
+    <t>0104A00003551</t>
+  </si>
+  <si>
+    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 2937</t>
+  </si>
+  <si>
+    <t>130000004900702018</t>
+  </si>
+  <si>
+    <t>0101A00001373</t>
+  </si>
+  <si>
+    <t>FONDO FID NOVIEMBRE 2017 NQ S/FC 1179</t>
+  </si>
+  <si>
+    <t>130000005000702018</t>
+  </si>
+  <si>
+    <t>0100A00001533</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO AGOSTO/14 S/FC. 1711</t>
+  </si>
+  <si>
+    <t>130000006700702015</t>
+  </si>
+  <si>
+    <t>0100A10003800</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3833</t>
+  </si>
+  <si>
+    <t>130000011300702018</t>
+  </si>
+  <si>
+    <t>0100A10003801</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3834</t>
+  </si>
+  <si>
+    <t>130000011400702018</t>
+  </si>
+  <si>
+    <t>0100A10003802</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3835</t>
+  </si>
+  <si>
+    <t>130000011500702018</t>
+  </si>
+  <si>
+    <t>0100A10003803</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3836</t>
+  </si>
+  <si>
+    <t>130000011600702018</t>
+  </si>
+  <si>
+    <t>0100A00002816</t>
+  </si>
+  <si>
+    <t>Gas Natural Octubre/16 CH</t>
+  </si>
+  <si>
+    <t>130000043000702017</t>
+  </si>
+  <si>
+    <t>0100A00012841</t>
+  </si>
+  <si>
+    <t>122016</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO DICIEMBRE-16 CH S/FC. 3065</t>
+  </si>
+  <si>
+    <t>130000046700702017</t>
+  </si>
+  <si>
+    <t>0100A00002807</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO JUNIO/16 S/FC. 3034 CCA CH</t>
+  </si>
+  <si>
+    <t>130000051200702017</t>
+  </si>
+  <si>
+    <t>0100A00002814</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO JULIO/16 S/FC. 3040 CCA CH</t>
+  </si>
+  <si>
+    <t>130000052900702017</t>
+  </si>
+  <si>
+    <t>0100A00002815</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO JULIO/16 S/FC. 3043 CCA CH</t>
+  </si>
+  <si>
+    <t>130000053600702017</t>
+  </si>
+  <si>
+    <t>0100A00002833</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO JULIO/16 S/FC. 3058 CCA CH</t>
+  </si>
+  <si>
+    <t>130000056100702017</t>
+  </si>
+  <si>
+    <t>0100A00003251</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO 2017 CC CH FC-3400</t>
+  </si>
+  <si>
+    <t>130000075200702017</t>
+  </si>
+  <si>
+    <t>0100A00003250</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO 2017 CC CH FC-3399</t>
+  </si>
+  <si>
+    <t>130000075300702017</t>
+  </si>
+  <si>
+    <t>0100A00003249</t>
+  </si>
+  <si>
+    <t>GAS NATURAL JUNIO 2017 CC CH FC-3398</t>
+  </si>
+  <si>
+    <t>130000075400702017</t>
+  </si>
+  <si>
+    <t>0100A00003252</t>
+  </si>
+  <si>
+    <t>Fdo Fiduciario Junio 2017 TF FC-3401</t>
+  </si>
+  <si>
+    <t>130000077200702017</t>
+  </si>
+  <si>
+    <t>0100A00003347</t>
+  </si>
+  <si>
+    <t>130000084500702017</t>
+  </si>
+  <si>
+    <t>0100A00003305</t>
+  </si>
+  <si>
+    <t>FDO FID ENE./17 S/FACT. 0012A00003449 CH</t>
+  </si>
+  <si>
+    <t>130000085400702017</t>
+  </si>
+  <si>
+    <t>0100A00003306</t>
+  </si>
+  <si>
+    <t>FDO FID ENE./17 S/FACT. 0012A00003450 CH</t>
+  </si>
+  <si>
+    <t>130000085700702017</t>
+  </si>
+  <si>
+    <t>0100A00003307</t>
+  </si>
+  <si>
+    <t>FDO FID ENE./17 S/FACT. 0012A00003451 CH</t>
+  </si>
+  <si>
+    <t>130000086100702017</t>
+  </si>
+  <si>
+    <t>0100A00003308</t>
+  </si>
+  <si>
+    <t>FDO FID ENE./17 S/FACT. 0012A00003452 CH</t>
+  </si>
+  <si>
+    <t>130000086200702017</t>
+  </si>
+  <si>
+    <t>0100A00002571</t>
+  </si>
+  <si>
+    <t>FDO. FIDUCIARIO ENERO/17 CH S/FC. 2956</t>
+  </si>
+  <si>
+    <t>130000086400702017</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>190000041400702015</t>
+  </si>
+  <si>
+    <t>190000043900702019</t>
+  </si>
+  <si>
+    <t>190000044000702019</t>
+  </si>
+  <si>
+    <t>190000183400702014</t>
+  </si>
+  <si>
+    <t>190000213100702016</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>20180614-70O05</t>
+  </si>
+  <si>
+    <t>GAS NATURAL FEBRERO/18</t>
+  </si>
+  <si>
+    <t>200001408800702018</t>
+  </si>
+  <si>
+    <t>20170929-70O02</t>
+  </si>
+  <si>
+    <t>200002367800702017</t>
+  </si>
+  <si>
+    <t>20171031-70O02</t>
+  </si>
+  <si>
+    <t>Gas Natural Junio 2016 CH</t>
+  </si>
+  <si>
+    <t>200002586600702017</t>
   </si>
 </sst>
 </file>
@@ -139,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -155,6 +941,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,1676 +1330,4492 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B2" s="6">
+        <v>800001321</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43091</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-23173812.350000001</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43122</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3">
+        <v>43122</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B3" s="6">
+        <v>800001323</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43091</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-1423509.81</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43122</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43122</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B4" s="6">
+        <v>800004396</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-9980758.5399999991</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43187</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B5" s="6">
+        <v>800004406</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-608550.65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43187</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B6" s="6">
+        <v>800005731</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44095</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-811001.55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44352</v>
+      </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B7" s="6">
+        <v>800006008</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-167604.87</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3">
+        <v>42886</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3">
+        <v>42872</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B8" s="6">
+        <v>800006018</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-5072346.8600000003</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3">
+        <v>42886</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3">
+        <v>42872</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B9" s="6">
+        <v>800006260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42811</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-593027.64</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3">
+        <v>42886</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3">
+        <v>42874</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B10" s="6">
+        <v>800006343</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42811</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-392350.48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>42886</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3">
+        <v>42874</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B11" s="6">
+        <v>800006469</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-137915.76</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3">
+        <v>42886</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3">
+        <v>42877</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B12" s="6">
+        <v>800007802</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44357</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-58037584.509999998</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44412</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="3">
+        <v>44364</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B13" s="6">
+        <v>800007803</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44357</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-5308026.3899999997</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44412</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="3">
+        <v>44364</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B14" s="6">
+        <v>800007820</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44364</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-7003668.6699999999</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44412</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="3">
+        <v>44365</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B15" s="6">
+        <v>800009466</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44391</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-23561630.120000001</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44442</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B16" s="6">
+        <v>800009467</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44391</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-85154408.409999996</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44442</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B17" s="6">
+        <v>800009468</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44391</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-8491888.4700000007</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44442</v>
+      </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B18" s="6">
+        <v>800009469</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44391</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-482682.4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44412</v>
+      </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B19" s="6">
+        <v>800010571</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="3">
+        <v>41859</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-6096850.9699999997</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3">
+        <v>41865</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="3">
+        <v>41865</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B20" s="6">
+        <v>800010959</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3">
+        <v>41578</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-872286.3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3">
+        <v>42216</v>
+      </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="3">
+        <v>42209</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B21" s="6">
+        <v>800010971</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3">
+        <v>41619</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-209882.38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>42216</v>
+      </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="3">
+        <v>42209</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B22" s="6">
+        <v>800014000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3">
+        <v>42916</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-25564295.219999999</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3">
+        <v>42978</v>
+      </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3">
+        <v>42972</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B23" s="6">
+        <v>800015221</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-1545347.67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3">
+        <v>43008</v>
+      </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="3">
+        <v>42990</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
+      <c r="A24" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B24" s="6">
+        <v>800015232</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-25333717.079999998</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3">
+        <v>43008</v>
+      </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="3">
+        <v>42990</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B25" s="6">
+        <v>800017138</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-4342141.8099999996</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3">
+        <v>43039</v>
+      </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B26" s="6">
+        <v>800017150</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-180883.16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3">
+        <v>43039</v>
+      </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B27" s="6">
+        <v>800019905</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43434</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-32911581.52</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43510</v>
+      </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="3">
+        <v>43444</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B28" s="6">
+        <v>800019907</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="3">
+        <v>43434</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-40928838.520000003</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43510</v>
+      </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="3">
+        <v>43444</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1100000020</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="3">
+        <v>43091</v>
+      </c>
+      <c r="F29" s="4">
+        <v>23201071.02</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43122</v>
+      </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="3">
+        <v>43122</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
+      <c r="A30" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1100000021</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43091</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1397314.46</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="3">
+        <v>43122</v>
+      </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="3">
+        <v>43122</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1100000190</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F31" s="4">
+        <v>10263448.76</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43187</v>
+      </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+      <c r="A32" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1100000191</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F32" s="4">
+        <v>15076.73</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43187</v>
+      </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1100000211</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="3">
+        <v>42811</v>
+      </c>
+      <c r="F33" s="4">
+        <v>27375</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="3">
+        <v>42886</v>
+      </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="3">
+        <v>42865</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1100000267</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="3">
+        <v>42846</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2133769.16</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="3">
+        <v>42886</v>
+      </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="3">
+        <v>42873</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1100000268</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="3">
+        <v>42846</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2133769.16</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3">
+        <v>42886</v>
+      </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="3">
+        <v>42873</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1100000401</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="3">
+        <v>41983</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3535.18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3">
+        <v>42004</v>
+      </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="3">
+        <v>41992</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1100000453</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F37" s="4">
+        <v>771.93</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="3">
+        <v>42735</v>
+      </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="3">
+        <v>42884</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1100000454</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44391</v>
+      </c>
+      <c r="F38" s="4">
+        <v>463306.17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="3">
+        <v>44412</v>
+      </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1100000461</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="3">
+        <v>41135</v>
+      </c>
+      <c r="F39" s="4">
+        <v>245718.1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3">
+        <v>42216</v>
+      </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="3">
+        <v>42212</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1100000463</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="3">
+        <v>41135</v>
+      </c>
+      <c r="F40" s="4">
+        <v>39578.51</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="3">
+        <v>42216</v>
+      </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="3">
+        <v>42212</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1100001436</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42692</v>
+      </c>
+      <c r="F41" s="4">
+        <v>237214.82</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="3">
+        <v>42735</v>
+      </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="3">
+        <v>42727</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1100001451</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="3">
+        <v>42696</v>
+      </c>
+      <c r="F42" s="4">
+        <v>154160.29999999999</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="3">
+        <v>42735</v>
+      </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3">
+        <v>42727</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1100001453</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="3">
+        <v>42696</v>
+      </c>
+      <c r="F43" s="4">
+        <v>472071.18</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="3">
+        <v>42735</v>
+      </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="3">
+        <v>42730</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
+      <c r="A44" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1100001667</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2138.4299999999998</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43008</v>
+      </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="3">
+        <v>42990</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
+      <c r="A45" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1100001668</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F45" s="4">
+        <v>25564295.219999999</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3">
+        <v>43008</v>
+      </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="3">
+        <v>42990</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="3"/>
+      <c r="A46" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1100001702</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1500636.66</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="3">
+        <v>43008</v>
+      </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="3">
+        <v>42991</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="3"/>
+      <c r="A47" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1100001705</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F47" s="4">
+        <v>12514.04</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="3">
+        <v>43008</v>
+      </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="3">
+        <v>42991</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="3"/>
+      <c r="A48" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1100001706</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F48" s="4">
+        <v>35682.269999999997</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43008</v>
+      </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="3">
+        <v>42991</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="3"/>
+      <c r="A49" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1100001718</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4415.26</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="3">
+        <v>43008</v>
+      </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="3">
+        <v>42992</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="3"/>
+      <c r="A50" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1100002053</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F50" s="4">
+        <v>5709432</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="3">
+        <v>43039</v>
+      </c>
       <c r="I50" s="3"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="3">
+        <v>43017</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
+      <c r="A51" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1100002059</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="3">
+        <v>43008</v>
+      </c>
+      <c r="F51" s="4">
+        <v>926392.76</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="3">
+        <v>43039</v>
+      </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="3"/>
+      <c r="A52" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1100002064</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5824401.9000000004</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="3">
+        <v>43039</v>
+      </c>
       <c r="I52" s="3"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="3"/>
+      <c r="A53" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1300000045</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="3">
+        <v>43119</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-10647.45</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="3">
+        <v>43113</v>
+      </c>
       <c r="I53" s="3"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="3">
+        <v>43131</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="3"/>
+      <c r="A54" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1300000046</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43125</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-552.57000000000005</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="3">
+        <v>43144</v>
+      </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="3">
+        <v>43131</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="3"/>
+      <c r="A55" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1300000047</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="3">
+        <v>43122</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-99.32</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="3">
+        <v>43144</v>
+      </c>
       <c r="I55" s="3"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="3">
+        <v>43131</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="3"/>
+      <c r="A56" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1300000048</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="3">
+        <v>43119</v>
+      </c>
+      <c r="F56" s="4">
+        <v>-2240.2399999999998</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="3">
+        <v>43144</v>
+      </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="3">
+        <v>43131</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="3"/>
+      <c r="A57" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1300000049</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="3">
+        <v>43125</v>
+      </c>
+      <c r="F57" s="4">
+        <v>-2626.26</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3">
+        <v>43144</v>
+      </c>
       <c r="I57" s="3"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="3">
+        <v>43131</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="3"/>
+      <c r="A58" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1300000050</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="3">
+        <v>43122</v>
+      </c>
+      <c r="F58" s="4">
+        <v>-472.04</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3">
+        <v>43144</v>
+      </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="3">
+        <v>43131</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="3"/>
+      <c r="A59" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1300000067</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="3">
+        <v>41988</v>
+      </c>
+      <c r="F59" s="4">
+        <v>-15161.99</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="3">
+        <v>41995</v>
+      </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="3">
+        <v>42058</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="3"/>
+      <c r="A60" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1300000113</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F60" s="4">
+        <v>-14615.21</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="3">
+        <v>43187</v>
+      </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="3"/>
+      <c r="A61" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1300000114</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F61" s="4">
+        <v>-4590.63</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="3">
+        <v>43187</v>
+      </c>
       <c r="I61" s="3"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="3"/>
+      <c r="A62" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1300000115</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F62" s="4">
+        <v>-1811.92</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="3">
+        <v>43187</v>
+      </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="3"/>
+      <c r="A63" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1300000116</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="3">
+        <v>43153</v>
+      </c>
+      <c r="F63" s="4">
+        <v>-882.24</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="3">
+        <v>43187</v>
+      </c>
       <c r="I63" s="3"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="3">
+        <v>43179</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="3"/>
+      <c r="A64" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1300000430</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="3">
+        <v>42811</v>
+      </c>
+      <c r="F64" s="4">
+        <v>-148025.10999999999</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="3">
+        <v>42886</v>
+      </c>
       <c r="I64" s="3"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="3">
+        <v>42859</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="3"/>
+      <c r="A65" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1300000467</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="3">
+        <v>42814</v>
+      </c>
+      <c r="F65" s="4">
+        <v>-334.88</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="3">
+        <v>42886</v>
+      </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="3">
+        <v>42865</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="3"/>
+      <c r="A66" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B66" s="6">
+        <v>1300000512</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F66" s="4">
+        <v>-34525.72</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="3">
+        <v>42886</v>
+      </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="3">
+        <v>42872</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="3"/>
+      <c r="A67" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1300000529</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" s="3">
+        <v>42810</v>
+      </c>
+      <c r="F67" s="4">
+        <v>-1377.71</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="3">
+        <v>42886</v>
+      </c>
       <c r="I67" s="3"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="3">
+        <v>42873</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="3"/>
+      <c r="A68" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1300000536</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="3">
+        <v>42811</v>
+      </c>
+      <c r="F68" s="4">
+        <v>-67795.899999999994</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="3">
+        <v>42886</v>
+      </c>
       <c r="I68" s="3"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="3">
+        <v>42874</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="3"/>
+      <c r="A69" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1300000561</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="3">
+        <v>42811</v>
+      </c>
+      <c r="F69" s="4">
+        <v>-2705.23</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="3">
+        <v>42886</v>
+      </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="3">
+        <v>42877</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="3"/>
+      <c r="A70" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B70" s="6">
+        <v>1300000752</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F70" s="4">
+        <v>-4530.2299999999996</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="3">
+        <v>43008</v>
+      </c>
       <c r="I70" s="3"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="3">
+        <v>42990</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="3"/>
+      <c r="A71" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B71" s="6">
+        <v>1300000753</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F71" s="4">
+        <v>-12919.19</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="3">
+        <v>43008</v>
+      </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="3">
+        <v>42990</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="3"/>
+      <c r="A72" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1300000754</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F72" s="4">
+        <v>-35116.1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="3">
+        <v>43008</v>
+      </c>
       <c r="I72" s="3"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="3">
+        <v>42990</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="3"/>
+      <c r="A73" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1300000772</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73" s="3">
+        <v>42976</v>
+      </c>
+      <c r="F73" s="4">
+        <v>-2184.4699999999998</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="3">
+        <v>43008</v>
+      </c>
       <c r="I73" s="3"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="3">
+        <v>42991</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="3"/>
+      <c r="A74" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B74" s="6">
+        <v>1300000845</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F74" s="4">
+        <v>-5732361.4500000002</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="3">
+        <v>43039</v>
+      </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="3">
+        <v>43017</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="3"/>
+      <c r="A75" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B75" s="6">
+        <v>1300000854</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F75" s="4">
+        <v>-7663.19</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="3">
+        <v>43039</v>
+      </c>
       <c r="I75" s="3"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="3"/>
+      <c r="A76" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1300000857</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F76" s="4">
+        <v>-2655.66</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="3">
+        <v>43039</v>
+      </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="3"/>
+      <c r="A77" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B77" s="6">
+        <v>1300000861</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F77" s="4">
+        <v>-659.81</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="3">
+        <v>43039</v>
+      </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="3"/>
+      <c r="A78" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1300000862</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F78" s="4">
+        <v>-336.34</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="3">
+        <v>43039</v>
+      </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="3"/>
+      <c r="A79" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B79" s="6">
+        <v>1300000864</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E79" s="3">
+        <v>42985</v>
+      </c>
+      <c r="F79" s="4">
+        <v>11315</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="3">
+        <v>43039</v>
+      </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="J79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="3">
+        <v>43018</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="3"/>
+      <c r="A80" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1900000414</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="3">
+        <v>42060</v>
+      </c>
+      <c r="F80" s="4">
+        <v>11003.81</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="3">
+        <v>42060</v>
+      </c>
       <c r="I80" s="3"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="J80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="3">
+        <v>42060</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="3"/>
+      <c r="A81" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B81" s="6">
+        <v>1900000439</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43510</v>
+      </c>
+      <c r="F81" s="4">
+        <v>39793309.149999999</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="3">
+        <v>43510</v>
+      </c>
       <c r="I81" s="3"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="J81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="3">
+        <v>43510</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="3"/>
+      <c r="A82" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B82" s="6">
+        <v>1900000439</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="3">
+        <v>43510</v>
+      </c>
+      <c r="F82" s="4">
+        <v>32859250.620000001</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="3">
+        <v>43510</v>
+      </c>
       <c r="I82" s="3"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="J82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="3">
+        <v>43510</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="3"/>
+      <c r="A83" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B83" s="6">
+        <v>1900000440</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="3">
+        <v>43516</v>
+      </c>
+      <c r="F83" s="4">
+        <v>26155.05</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="3">
+        <v>43516</v>
+      </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="3">
+        <v>43516</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="3"/>
+      <c r="A84" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B84" s="6">
+        <v>1900000440</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="3">
+        <v>43516</v>
+      </c>
+      <c r="F84" s="4">
+        <v>31673.86</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="3">
+        <v>43516</v>
+      </c>
       <c r="I84" s="3"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="3">
+        <v>43516</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="3"/>
+      <c r="A85" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B85" s="6">
+        <v>1900001834</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="3">
+        <v>41877</v>
+      </c>
+      <c r="F85" s="4">
+        <v>6048704.4800000004</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="3">
+        <v>41877</v>
+      </c>
       <c r="I85" s="3"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="3">
+        <v>41877</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="3"/>
+      <c r="A86" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B86" s="6">
+        <v>1900002131</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="3">
+        <v>42577</v>
+      </c>
+      <c r="F86" s="4">
+        <v>841835.61</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="3">
+        <v>42577</v>
+      </c>
       <c r="I86" s="3"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="3">
+        <v>42577</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="3"/>
+      <c r="A87" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2000014088</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="3">
+        <v>43265</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1806888.78</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="3">
+        <v>43265</v>
+      </c>
       <c r="I87" s="3"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="3">
+        <v>43265</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="3"/>
+      <c r="A88" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B88" s="6">
+        <v>2000023678</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="3">
+        <v>43007</v>
+      </c>
+      <c r="F88" s="4">
+        <v>25384389.940000001</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="3">
+        <v>43007</v>
+      </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="J88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="3">
+        <v>43007</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="3"/>
+      <c r="A89" s="6">
+        <v>2000015</v>
+      </c>
+      <c r="B89" s="6">
+        <v>2000025866</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="3">
+        <v>43039</v>
+      </c>
+      <c r="F89" s="4">
+        <v>46994.87</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="3">
+        <v>43039</v>
+      </c>
       <c r="I89" s="3"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="3">
+        <v>43039</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypajarino\Projects\2021.02.03 BUSCADOR PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10ADE3B-1F49-4F1F-BA4B-C591C7B7D48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F54FB6-6905-4E98-B321-C8A178C51EAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B99FABA6-DF95-4019-9921-2FEFF1CE1FF7}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Tablas" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>Sociedad</t>
   </si>
@@ -82,9 +85,6 @@
     <t>KE</t>
   </si>
   <si>
-    <t>0100A00003736</t>
-  </si>
-  <si>
     <t>ARS</t>
   </si>
   <si>
@@ -94,109 +94,10 @@
     <t>0001</t>
   </si>
   <si>
-    <t>092017</t>
-  </si>
-  <si>
-    <t>GAS NATURAL SEPTIEMBRE 2017 CCA CH</t>
-  </si>
-  <si>
-    <t>080000132100702018</t>
-  </si>
-  <si>
     <t>0070</t>
   </si>
   <si>
-    <t>0100A00003738</t>
-  </si>
-  <si>
-    <t>080000132300702018</t>
-  </si>
-  <si>
-    <t>0100A00003833</t>
-  </si>
-  <si>
-    <t>042017</t>
-  </si>
-  <si>
-    <t>GAS NATURAL ABRIL/17 CH</t>
-  </si>
-  <si>
-    <t>080000439600702018</t>
-  </si>
-  <si>
-    <t>0100A00003835</t>
-  </si>
-  <si>
-    <t>080000440600702018</t>
-  </si>
-  <si>
-    <t>3003A00000349</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>082020</t>
-  </si>
-  <si>
     <t>Gas Natural</t>
-  </si>
-  <si>
-    <t>080000573100702021</t>
-  </si>
-  <si>
-    <t>0100A00003033</t>
-  </si>
-  <si>
-    <t>062016</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO-16 CCA CH</t>
-  </si>
-  <si>
-    <t>080000600800702017</t>
-  </si>
-  <si>
-    <t>0100A00003034</t>
-  </si>
-  <si>
-    <t>080000601800702017</t>
-  </si>
-  <si>
-    <t>0100A00003051</t>
-  </si>
-  <si>
-    <t>082016</t>
-  </si>
-  <si>
-    <t>GAS NATURAL AGOSTO-16 CCA CH</t>
-  </si>
-  <si>
-    <t>080000626000702017</t>
-  </si>
-  <si>
-    <t>0100A00003053</t>
-  </si>
-  <si>
-    <t>092016</t>
-  </si>
-  <si>
-    <t>GAS NATURAL SEPTIEMBRE-16 CCA CH</t>
-  </si>
-  <si>
-    <t>080000634300702017</t>
-  </si>
-  <si>
-    <t>0101A00000951</t>
-  </si>
-  <si>
-    <t>052016</t>
-  </si>
-  <si>
-    <t>GAS NATURAL MAYO-16 CCA NQ</t>
-  </si>
-  <si>
-    <t>080000646900702017</t>
   </si>
   <si>
     <t>3001A00000526</t>
@@ -250,619 +151,13 @@
     <t>080000946900702021</t>
   </si>
   <si>
-    <t>0100A00001477</t>
-  </si>
-  <si>
-    <t>062014</t>
-  </si>
-  <si>
-    <t>gas natural junio/14 cca CH</t>
-  </si>
-  <si>
-    <t>080001057100702014</t>
-  </si>
-  <si>
-    <t>0103A00000714</t>
-  </si>
-  <si>
-    <t>092013</t>
-  </si>
-  <si>
-    <t>RECONCILIACION SEPTIEMBRE-2013 NQ</t>
-  </si>
-  <si>
-    <t>080001095900702015</t>
-  </si>
-  <si>
-    <t>0104A00000784</t>
-  </si>
-  <si>
-    <t>102013</t>
-  </si>
-  <si>
-    <t>RECONCILIACION OCTUBRE-2013 NQ</t>
-  </si>
-  <si>
-    <t>080001097100702015</t>
-  </si>
-  <si>
-    <t>0100A00003300</t>
-  </si>
-  <si>
-    <t>062017</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO/17 CH</t>
-  </si>
-  <si>
-    <t>080001400000702017</t>
-  </si>
-  <si>
-    <t>0100A00003400</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO 2017 CC CH</t>
-  </si>
-  <si>
-    <t>080001522100702017</t>
-  </si>
-  <si>
-    <t>0100A00003398</t>
-  </si>
-  <si>
-    <t>080001523200702017</t>
-  </si>
-  <si>
-    <t>0100A00003449</t>
-  </si>
-  <si>
-    <t>012017</t>
-  </si>
-  <si>
-    <t>GAS NATURAL ENERO 2017 CH</t>
-  </si>
-  <si>
-    <t>080001713800702017</t>
-  </si>
-  <si>
-    <t>0100A00003451</t>
-  </si>
-  <si>
-    <t>080001715000702017</t>
-  </si>
-  <si>
-    <t>3000A00000243</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>112018</t>
-  </si>
-  <si>
-    <t>GAS NATURAL NOVIEMBRE/18</t>
-  </si>
-  <si>
-    <t>080001990500702018</t>
-  </si>
-  <si>
-    <t>3000A00000244</t>
-  </si>
-  <si>
-    <t>080001990700702018</t>
-  </si>
-  <si>
     <t>KH</t>
-  </si>
-  <si>
-    <t>0100A00002988</t>
-  </si>
-  <si>
-    <t>110000002000702018</t>
-  </si>
-  <si>
-    <t>0100A00002991</t>
-  </si>
-  <si>
-    <t>110000002100702018</t>
-  </si>
-  <si>
-    <t>0100A00003104</t>
-  </si>
-  <si>
-    <t>110000019000702018</t>
-  </si>
-  <si>
-    <t>0100A00003108</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3262</t>
-  </si>
-  <si>
-    <t>110000019100702018</t>
-  </si>
-  <si>
-    <t>0100A00002064</t>
-  </si>
-  <si>
-    <t>102016</t>
-  </si>
-  <si>
-    <t>FONDO FIDUCIARIO OCTUBRE/16 CH S/ND. 2566</t>
-  </si>
-  <si>
-    <t>110000021100702017</t>
-  </si>
-  <si>
-    <t>0100A00002169</t>
-  </si>
-  <si>
-    <t>BONIFICACION RES. ME Y M 212/16 SEPTIEMBRE/16</t>
-  </si>
-  <si>
-    <t>110000026700702017</t>
-  </si>
-  <si>
-    <t>0100A00002170</t>
-  </si>
-  <si>
-    <t>072016</t>
-  </si>
-  <si>
-    <t>BONIFICACION RES. ME Y M 212/16 JULIO/16</t>
-  </si>
-  <si>
-    <t>110000026800702017</t>
-  </si>
-  <si>
-    <t>0100A00001016</t>
-  </si>
-  <si>
-    <t>102014</t>
-  </si>
-  <si>
-    <t>FONDO FIDUCIARIO NQN OCTUBRE 2014 S/NC 1013</t>
-  </si>
-  <si>
-    <t>110000040100702014</t>
-  </si>
-  <si>
-    <t>0100A00002055</t>
-  </si>
-  <si>
-    <t>Fondo fiduciario Junio 2016 s/fc 2834</t>
-  </si>
-  <si>
-    <t>110000045300702017</t>
   </si>
   <si>
     <t>3001A00000405</t>
   </si>
   <si>
     <t>110000045400702021</t>
-  </si>
-  <si>
-    <t>0100A00000142</t>
-  </si>
-  <si>
-    <t>012012</t>
-  </si>
-  <si>
-    <t>RECONCILIACION GAS NATURAL ENERO/12 CH</t>
-  </si>
-  <si>
-    <t>110000046100702015</t>
-  </si>
-  <si>
-    <t>0100A00000145</t>
-  </si>
-  <si>
-    <t>110000046300702015</t>
-  </si>
-  <si>
-    <t>0100A00001781</t>
-  </si>
-  <si>
-    <t>Gas natural Junio 2016 CH</t>
-  </si>
-  <si>
-    <t>110000143600702016</t>
-  </si>
-  <si>
-    <t>0100A00001812</t>
-  </si>
-  <si>
-    <t>Fondo fiduciario Julio 2016 s/fc 1873</t>
-  </si>
-  <si>
-    <t>110000145100702016</t>
-  </si>
-  <si>
-    <t>0100A00001813</t>
-  </si>
-  <si>
-    <t>Gas natural Julio 2016 CH</t>
-  </si>
-  <si>
-    <t>110000145300702016</t>
-  </si>
-  <si>
-    <t>0100A00002513</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO 2017 CC CH NC-2506</t>
-  </si>
-  <si>
-    <t>110000166700702017</t>
-  </si>
-  <si>
-    <t>0100A00002502</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO/17 CH AJUSTE DOC-3300</t>
-  </si>
-  <si>
-    <t>110000166800702017</t>
-  </si>
-  <si>
-    <t>0100A00002504</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO/17 CH s/FC 3302</t>
-  </si>
-  <si>
-    <t>110000170200702017</t>
-  </si>
-  <si>
-    <t>0100A00002511</t>
-  </si>
-  <si>
-    <t>Fdo Fiduciario Junio 2017 NC-2503</t>
-  </si>
-  <si>
-    <t>110000170500702017</t>
-  </si>
-  <si>
-    <t>0100A00002510</t>
-  </si>
-  <si>
-    <t>Fdo Fiduciario Junio 2017 NC-2502</t>
-  </si>
-  <si>
-    <t>110000170600702017</t>
-  </si>
-  <si>
-    <t>0100A00002512</t>
-  </si>
-  <si>
-    <t>Fdo Fiduciario Junio 2017 NC-2504</t>
-  </si>
-  <si>
-    <t>110000171800702017</t>
-  </si>
-  <si>
-    <t>0100A00002646</t>
-  </si>
-  <si>
-    <t>052017</t>
-  </si>
-  <si>
-    <t>Bonificaciones Gas Natural Mayo/17 CCA CH</t>
-  </si>
-  <si>
-    <t>110000205300702017</t>
-  </si>
-  <si>
-    <t>0012A00003626</t>
-  </si>
-  <si>
-    <t>BONIFICACION CCA TF</t>
-  </si>
-  <si>
-    <t>110000205900702017</t>
-  </si>
-  <si>
-    <t>0100A00002570</t>
-  </si>
-  <si>
-    <t>GAS NATURAL ENERO/17 CH</t>
-  </si>
-  <si>
-    <t>110000206400702017</t>
-  </si>
-  <si>
-    <t>KJ</t>
-  </si>
-  <si>
-    <t>0100A00003741</t>
-  </si>
-  <si>
-    <t>112017</t>
-  </si>
-  <si>
-    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 3799</t>
-  </si>
-  <si>
-    <t>130000004500702018</t>
-  </si>
-  <si>
-    <t>0104A00003552</t>
-  </si>
-  <si>
-    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 2938</t>
-  </si>
-  <si>
-    <t>130000004600702018</t>
-  </si>
-  <si>
-    <t>0101A00001375</t>
-  </si>
-  <si>
-    <t>FONDO FID NOVIEMBRE 2017 NQ S/FC 1181</t>
-  </si>
-  <si>
-    <t>130000004700702018</t>
-  </si>
-  <si>
-    <t>0100A00003743</t>
-  </si>
-  <si>
-    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 3801</t>
-  </si>
-  <si>
-    <t>130000004800702018</t>
-  </si>
-  <si>
-    <t>0104A00003551</t>
-  </si>
-  <si>
-    <t>FONDO FID NOVIEMBRE 2017 CH S/FC 2937</t>
-  </si>
-  <si>
-    <t>130000004900702018</t>
-  </si>
-  <si>
-    <t>0101A00001373</t>
-  </si>
-  <si>
-    <t>FONDO FID NOVIEMBRE 2017 NQ S/FC 1179</t>
-  </si>
-  <si>
-    <t>130000005000702018</t>
-  </si>
-  <si>
-    <t>0100A00001533</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO AGOSTO/14 S/FC. 1711</t>
-  </si>
-  <si>
-    <t>130000006700702015</t>
-  </si>
-  <si>
-    <t>0100A10003800</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3833</t>
-  </si>
-  <si>
-    <t>130000011300702018</t>
-  </si>
-  <si>
-    <t>0100A10003801</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3834</t>
-  </si>
-  <si>
-    <t>130000011400702018</t>
-  </si>
-  <si>
-    <t>0100A10003802</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3835</t>
-  </si>
-  <si>
-    <t>130000011500702018</t>
-  </si>
-  <si>
-    <t>0100A10003803</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO ABRIL/17 CH S/FC. 3836</t>
-  </si>
-  <si>
-    <t>130000011600702018</t>
-  </si>
-  <si>
-    <t>0100A00002816</t>
-  </si>
-  <si>
-    <t>Gas Natural Octubre/16 CH</t>
-  </si>
-  <si>
-    <t>130000043000702017</t>
-  </si>
-  <si>
-    <t>0100A00012841</t>
-  </si>
-  <si>
-    <t>122016</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO DICIEMBRE-16 CH S/FC. 3065</t>
-  </si>
-  <si>
-    <t>130000046700702017</t>
-  </si>
-  <si>
-    <t>0100A00002807</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO JUNIO/16 S/FC. 3034 CCA CH</t>
-  </si>
-  <si>
-    <t>130000051200702017</t>
-  </si>
-  <si>
-    <t>0100A00002814</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO JULIO/16 S/FC. 3040 CCA CH</t>
-  </si>
-  <si>
-    <t>130000052900702017</t>
-  </si>
-  <si>
-    <t>0100A00002815</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO JULIO/16 S/FC. 3043 CCA CH</t>
-  </si>
-  <si>
-    <t>130000053600702017</t>
-  </si>
-  <si>
-    <t>0100A00002833</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO JULIO/16 S/FC. 3058 CCA CH</t>
-  </si>
-  <si>
-    <t>130000056100702017</t>
-  </si>
-  <si>
-    <t>0100A00003251</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO 2017 CC CH FC-3400</t>
-  </si>
-  <si>
-    <t>130000075200702017</t>
-  </si>
-  <si>
-    <t>0100A00003250</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO 2017 CC CH FC-3399</t>
-  </si>
-  <si>
-    <t>130000075300702017</t>
-  </si>
-  <si>
-    <t>0100A00003249</t>
-  </si>
-  <si>
-    <t>GAS NATURAL JUNIO 2017 CC CH FC-3398</t>
-  </si>
-  <si>
-    <t>130000075400702017</t>
-  </si>
-  <si>
-    <t>0100A00003252</t>
-  </si>
-  <si>
-    <t>Fdo Fiduciario Junio 2017 TF FC-3401</t>
-  </si>
-  <si>
-    <t>130000077200702017</t>
-  </si>
-  <si>
-    <t>0100A00003347</t>
-  </si>
-  <si>
-    <t>130000084500702017</t>
-  </si>
-  <si>
-    <t>0100A00003305</t>
-  </si>
-  <si>
-    <t>FDO FID ENE./17 S/FACT. 0012A00003449 CH</t>
-  </si>
-  <si>
-    <t>130000085400702017</t>
-  </si>
-  <si>
-    <t>0100A00003306</t>
-  </si>
-  <si>
-    <t>FDO FID ENE./17 S/FACT. 0012A00003450 CH</t>
-  </si>
-  <si>
-    <t>130000085700702017</t>
-  </si>
-  <si>
-    <t>0100A00003307</t>
-  </si>
-  <si>
-    <t>FDO FID ENE./17 S/FACT. 0012A00003451 CH</t>
-  </si>
-  <si>
-    <t>130000086100702017</t>
-  </si>
-  <si>
-    <t>0100A00003308</t>
-  </si>
-  <si>
-    <t>FDO FID ENE./17 S/FACT. 0012A00003452 CH</t>
-  </si>
-  <si>
-    <t>130000086200702017</t>
-  </si>
-  <si>
-    <t>0100A00002571</t>
-  </si>
-  <si>
-    <t>FDO. FIDUCIARIO ENERO/17 CH S/FC. 2956</t>
-  </si>
-  <si>
-    <t>130000086400702017</t>
-  </si>
-  <si>
-    <t>KZ</t>
-  </si>
-  <si>
-    <t>190000041400702015</t>
-  </si>
-  <si>
-    <t>190000043900702019</t>
-  </si>
-  <si>
-    <t>190000044000702019</t>
-  </si>
-  <si>
-    <t>190000183400702014</t>
-  </si>
-  <si>
-    <t>190000213100702016</t>
-  </si>
-  <si>
-    <t>ZP</t>
-  </si>
-  <si>
-    <t>20180614-70O05</t>
-  </si>
-  <si>
-    <t>GAS NATURAL FEBRERO/18</t>
-  </si>
-  <si>
-    <t>200001408800702018</t>
-  </si>
-  <si>
-    <t>20170929-70O02</t>
-  </si>
-  <si>
-    <t>200002367800702017</t>
-  </si>
-  <si>
-    <t>20171031-70O02</t>
-  </si>
-  <si>
-    <t>Gas Natural Junio 2016 CH</t>
-  </si>
-  <si>
-    <t>200002586600702017</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F488C143-F93A-481C-9B38-1DB2F2E84839}">
-  <dimension ref="A1:Q1831"/>
+  <dimension ref="A1:Q1751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1334,50 +629,50 @@
         <v>2000015</v>
       </c>
       <c r="B2" s="6">
-        <v>800001321</v>
+        <v>800007802</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44357</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-58037584.509999998</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3">
-        <v>43091</v>
-      </c>
-      <c r="F2" s="4">
-        <v>-23173812.350000001</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="3">
-        <v>43122</v>
+        <v>44412</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44364</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3">
-        <v>43122</v>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1385,50 +680,50 @@
         <v>2000015</v>
       </c>
       <c r="B3" s="6">
-        <v>800001323</v>
+        <v>800007803</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
-        <v>43091</v>
+        <v>44357</v>
       </c>
       <c r="F3" s="4">
-        <v>-1423509.81</v>
+        <v>-5308026.3899999997</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3">
-        <v>43122</v>
+        <v>44412</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44364</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3">
-        <v>43122</v>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1436,50 +731,50 @@
         <v>2000015</v>
       </c>
       <c r="B4" s="6">
-        <v>800004396</v>
+        <v>800007820</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3">
-        <v>43153</v>
+        <v>44364</v>
       </c>
       <c r="F4" s="4">
-        <v>-9980758.5399999991</v>
+        <v>-7003668.6699999999</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3">
-        <v>43187</v>
+        <v>44412</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44365</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1487,50 +782,50 @@
         <v>2000015</v>
       </c>
       <c r="B5" s="6">
-        <v>800004406</v>
+        <v>800009466</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3">
-        <v>43153</v>
+        <v>44391</v>
       </c>
       <c r="F5" s="4">
-        <v>-608550.65</v>
+        <v>-23561630.120000001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
-        <v>43187</v>
+        <v>44442</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1538,7 +833,7 @@
         <v>2000015</v>
       </c>
       <c r="B6" s="6">
-        <v>800005731</v>
+        <v>800009467</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1547,41 +842,41 @@
         <v>34</v>
       </c>
       <c r="E6" s="3">
-        <v>44095</v>
+        <v>44391</v>
       </c>
       <c r="F6" s="4">
-        <v>-811001.55</v>
+        <v>-85154408.409999996</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="3">
-        <v>44352</v>
+        <v>44442</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="3">
-        <v>44323</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1589,50 +884,50 @@
         <v>2000015</v>
       </c>
       <c r="B7" s="6">
-        <v>800006008</v>
+        <v>800009468</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3">
-        <v>42809</v>
+        <v>44391</v>
       </c>
       <c r="F7" s="4">
-        <v>-167604.87</v>
+        <v>-8491888.4700000007</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3">
-        <v>42886</v>
+        <v>44442</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="3">
-        <v>42872</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1640,50 +935,50 @@
         <v>2000015</v>
       </c>
       <c r="B8" s="6">
-        <v>800006018</v>
+        <v>800009469</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3">
-        <v>42809</v>
+        <v>44391</v>
       </c>
       <c r="F8" s="4">
-        <v>-5072346.8600000003</v>
+        <v>-482682.4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3">
-        <v>42886</v>
+        <v>44412</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3">
-        <v>42872</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1691,4131 +986,1571 @@
         <v>2000015</v>
       </c>
       <c r="B9" s="6">
-        <v>800006260</v>
+        <v>1100000454</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3">
-        <v>42811</v>
+        <v>44391</v>
       </c>
       <c r="F9" s="4">
-        <v>-593027.64</v>
+        <v>463306.17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3">
-        <v>42886</v>
+        <v>44412</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44393</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="3">
-        <v>42874</v>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B10" s="6">
-        <v>800006343</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3">
-        <v>42811</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-392350.48</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3">
-        <v>42874</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B11" s="6">
-        <v>800006469</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3">
-        <v>42809</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-137915.76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3">
-        <v>42877</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B12" s="6">
-        <v>800007802</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>44357</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-58037584.509999998</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3">
-        <v>44412</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="3">
-        <v>44364</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B13" s="6">
-        <v>800007803</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3">
-        <v>44357</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-5308026.3899999997</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3">
-        <v>44412</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="3">
-        <v>44364</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B14" s="6">
-        <v>800007820</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="3">
-        <v>44364</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-7003668.6699999999</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="3">
-        <v>44412</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="3">
-        <v>44365</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B15" s="6">
-        <v>800009466</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="3">
-        <v>44391</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-23561630.120000001</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3">
-        <v>44442</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="3">
-        <v>44393</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B16" s="6">
-        <v>800009467</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="3">
-        <v>44391</v>
-      </c>
-      <c r="F16" s="4">
-        <v>-85154408.409999996</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3">
-        <v>44442</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="3">
-        <v>44393</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B17" s="6">
-        <v>800009468</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="3">
-        <v>44391</v>
-      </c>
-      <c r="F17" s="4">
-        <v>-8491888.4700000007</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="3">
-        <v>44442</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="3">
-        <v>44393</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B18" s="6">
-        <v>800009469</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="3">
-        <v>44391</v>
-      </c>
-      <c r="F18" s="4">
-        <v>-482682.4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="3">
-        <v>44412</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="3">
-        <v>44393</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B19" s="6">
-        <v>800010571</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3">
-        <v>41859</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-6096850.9699999997</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="3">
-        <v>41865</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="3">
-        <v>41865</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B20" s="6">
-        <v>800010959</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="3">
-        <v>41578</v>
-      </c>
-      <c r="F20" s="4">
-        <v>-872286.3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="3">
-        <v>42216</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="3">
-        <v>42209</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B21" s="6">
-        <v>800010971</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="3">
-        <v>41619</v>
-      </c>
-      <c r="F21" s="4">
-        <v>-209882.38</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3">
-        <v>42216</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="3">
-        <v>42209</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B22" s="6">
-        <v>800014000</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="3">
-        <v>42916</v>
-      </c>
-      <c r="F22" s="4">
-        <v>-25564295.219999999</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="3">
-        <v>42978</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="3">
-        <v>42972</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B23" s="6">
-        <v>800015221</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F23" s="4">
-        <v>-1545347.67</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="3">
-        <v>42990</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B24" s="6">
-        <v>800015232</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F24" s="4">
-        <v>-25333717.079999998</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="3">
-        <v>42990</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B25" s="6">
-        <v>800017138</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F25" s="4">
-        <v>-4342141.8099999996</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B26" s="6">
-        <v>800017150</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F26" s="4">
-        <v>-180883.16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B27" s="6">
-        <v>800019905</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="3">
-        <v>43434</v>
-      </c>
-      <c r="F27" s="4">
-        <v>-32911581.52</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="3">
-        <v>43510</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="3">
-        <v>43444</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B28" s="6">
-        <v>800019907</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="3">
-        <v>43434</v>
-      </c>
-      <c r="F28" s="4">
-        <v>-40928838.520000003</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="3">
-        <v>43510</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="3">
-        <v>43444</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1100000020</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="3">
-        <v>43091</v>
-      </c>
-      <c r="F29" s="4">
-        <v>23201071.02</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="3">
-        <v>43122</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="3">
-        <v>43122</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1100000021</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="3">
-        <v>43091</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1397314.46</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="3">
-        <v>43122</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="3">
-        <v>43122</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1100000190</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="3">
-        <v>43153</v>
-      </c>
-      <c r="F31" s="4">
-        <v>10263448.76</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="3">
-        <v>43187</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1100000191</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="3">
-        <v>43153</v>
-      </c>
-      <c r="F32" s="4">
-        <v>15076.73</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="3">
-        <v>43187</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1100000211</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="3">
-        <v>42811</v>
-      </c>
-      <c r="F33" s="4">
-        <v>27375</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="3">
-        <v>42865</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1100000267</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="3">
-        <v>42846</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2133769.16</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="3">
-        <v>42873</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1100000268</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="3">
-        <v>42846</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2133769.16</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="3">
-        <v>42873</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1100000401</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="3">
-        <v>41983</v>
-      </c>
-      <c r="F36" s="4">
-        <v>3535.18</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="3">
-        <v>42004</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="3">
-        <v>41992</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1100000453</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="3">
-        <v>42809</v>
-      </c>
-      <c r="F37" s="4">
-        <v>771.93</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="3">
-        <v>42735</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="3">
-        <v>42884</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1100000454</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="3">
-        <v>44391</v>
-      </c>
-      <c r="F38" s="4">
-        <v>463306.17</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="3">
-        <v>44412</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="3">
-        <v>44393</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1100000461</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="3">
-        <v>41135</v>
-      </c>
-      <c r="F39" s="4">
-        <v>245718.1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="3">
-        <v>42216</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="3">
-        <v>42212</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1100000463</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="3">
-        <v>41135</v>
-      </c>
-      <c r="F40" s="4">
-        <v>39578.51</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="3">
-        <v>42216</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="3">
-        <v>42212</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1100001436</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="3">
-        <v>42692</v>
-      </c>
-      <c r="F41" s="4">
-        <v>237214.82</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="3">
-        <v>42735</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="3">
-        <v>42727</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1100001451</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="3">
-        <v>42696</v>
-      </c>
-      <c r="F42" s="4">
-        <v>154160.29999999999</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="3">
-        <v>42735</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="3">
-        <v>42727</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B43" s="6">
-        <v>1100001453</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="3">
-        <v>42696</v>
-      </c>
-      <c r="F43" s="4">
-        <v>472071.18</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="3">
-        <v>42735</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="3">
-        <v>42730</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1100001667</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F44" s="4">
-        <v>2138.4299999999998</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="3">
-        <v>42990</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1100001668</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F45" s="4">
-        <v>25564295.219999999</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="3">
-        <v>42990</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1100001702</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1500636.66</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="3">
-        <v>42991</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1100001705</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F47" s="4">
-        <v>12514.04</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="3">
-        <v>42991</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1100001706</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F48" s="4">
-        <v>35682.269999999997</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="3">
-        <v>42991</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1100001718</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F49" s="4">
-        <v>4415.26</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="3">
-        <v>42992</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B50" s="6">
-        <v>1100002053</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F50" s="4">
-        <v>5709432</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="3">
-        <v>43017</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1100002059</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="3">
-        <v>43008</v>
-      </c>
-      <c r="F51" s="4">
-        <v>926392.76</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B52" s="6">
-        <v>1100002064</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F52" s="4">
-        <v>5824401.9000000004</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1300000045</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="3">
-        <v>43119</v>
-      </c>
-      <c r="F53" s="4">
-        <v>-10647.45</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="3">
-        <v>43113</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="3">
-        <v>43131</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1300000046</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" s="3">
-        <v>43125</v>
-      </c>
-      <c r="F54" s="4">
-        <v>-552.57000000000005</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="3">
-        <v>43144</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="3">
-        <v>43131</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B55" s="6">
-        <v>1300000047</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="3">
-        <v>43122</v>
-      </c>
-      <c r="F55" s="4">
-        <v>-99.32</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="3">
-        <v>43144</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="3">
-        <v>43131</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B56" s="6">
-        <v>1300000048</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" s="3">
-        <v>43119</v>
-      </c>
-      <c r="F56" s="4">
-        <v>-2240.2399999999998</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="3">
-        <v>43144</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="3">
-        <v>43131</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B57" s="6">
-        <v>1300000049</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="3">
-        <v>43125</v>
-      </c>
-      <c r="F57" s="4">
-        <v>-2626.26</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="3">
-        <v>43144</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="3">
-        <v>43131</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B58" s="6">
-        <v>1300000050</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="3">
-        <v>43122</v>
-      </c>
-      <c r="F58" s="4">
-        <v>-472.04</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="3">
-        <v>43144</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="3">
-        <v>43131</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B59" s="6">
-        <v>1300000067</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E59" s="3">
-        <v>41988</v>
-      </c>
-      <c r="F59" s="4">
-        <v>-15161.99</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="3">
-        <v>41995</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="3">
-        <v>42058</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B60" s="6">
-        <v>1300000113</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="3">
-        <v>43153</v>
-      </c>
-      <c r="F60" s="4">
-        <v>-14615.21</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="3">
-        <v>43187</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B61" s="6">
-        <v>1300000114</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="3">
-        <v>43153</v>
-      </c>
-      <c r="F61" s="4">
-        <v>-4590.63</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="3">
-        <v>43187</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B62" s="6">
-        <v>1300000115</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="3">
-        <v>43153</v>
-      </c>
-      <c r="F62" s="4">
-        <v>-1811.92</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="3">
-        <v>43187</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B63" s="6">
-        <v>1300000116</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" s="3">
-        <v>43153</v>
-      </c>
-      <c r="F63" s="4">
-        <v>-882.24</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="3">
-        <v>43187</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="3">
-        <v>43179</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B64" s="6">
-        <v>1300000430</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="3">
-        <v>42811</v>
-      </c>
-      <c r="F64" s="4">
-        <v>-148025.10999999999</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="3">
-        <v>42859</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B65" s="6">
-        <v>1300000467</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="3">
-        <v>42814</v>
-      </c>
-      <c r="F65" s="4">
-        <v>-334.88</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="3">
-        <v>42865</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B66" s="6">
-        <v>1300000512</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="3">
-        <v>42809</v>
-      </c>
-      <c r="F66" s="4">
-        <v>-34525.72</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="3">
-        <v>42872</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B67" s="6">
-        <v>1300000529</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E67" s="3">
-        <v>42810</v>
-      </c>
-      <c r="F67" s="4">
-        <v>-1377.71</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="3">
-        <v>42873</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B68" s="6">
-        <v>1300000536</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" s="3">
-        <v>42811</v>
-      </c>
-      <c r="F68" s="4">
-        <v>-67795.899999999994</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="3">
-        <v>42874</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B69" s="6">
-        <v>1300000561</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E69" s="3">
-        <v>42811</v>
-      </c>
-      <c r="F69" s="4">
-        <v>-2705.23</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="3">
-        <v>42886</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="3">
-        <v>42877</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B70" s="6">
-        <v>1300000752</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F70" s="4">
-        <v>-4530.2299999999996</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="3">
-        <v>42990</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B71" s="6">
-        <v>1300000753</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E71" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F71" s="4">
-        <v>-12919.19</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="3">
-        <v>42990</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B72" s="6">
-        <v>1300000754</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F72" s="4">
-        <v>-35116.1</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="3">
-        <v>42990</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B73" s="6">
-        <v>1300000772</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E73" s="3">
-        <v>42976</v>
-      </c>
-      <c r="F73" s="4">
-        <v>-2184.4699999999998</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="3">
-        <v>43008</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="3">
-        <v>42991</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B74" s="6">
-        <v>1300000845</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E74" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F74" s="4">
-        <v>-5732361.4500000002</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="3">
-        <v>43017</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B75" s="6">
-        <v>1300000854</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F75" s="4">
-        <v>-7663.19</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B76" s="6">
-        <v>1300000857</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E76" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F76" s="4">
-        <v>-2655.66</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B77" s="6">
-        <v>1300000861</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F77" s="4">
-        <v>-659.81</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B78" s="6">
-        <v>1300000862</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E78" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F78" s="4">
-        <v>-336.34</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B79" s="6">
-        <v>1300000864</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E79" s="3">
-        <v>42985</v>
-      </c>
-      <c r="F79" s="4">
-        <v>11315</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="3">
-        <v>43018</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B80" s="6">
-        <v>1900000414</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="3">
-        <v>42060</v>
-      </c>
-      <c r="F80" s="4">
-        <v>11003.81</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="3">
-        <v>42060</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" s="3">
-        <v>42060</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B81" s="6">
-        <v>1900000439</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="3">
-        <v>43510</v>
-      </c>
-      <c r="F81" s="4">
-        <v>39793309.149999999</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="3">
-        <v>43510</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" s="3">
-        <v>43510</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B82" s="6">
-        <v>1900000439</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="3">
-        <v>43510</v>
-      </c>
-      <c r="F82" s="4">
-        <v>32859250.620000001</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="3">
-        <v>43510</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="3">
-        <v>43510</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B83" s="6">
-        <v>1900000440</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="3">
-        <v>43516</v>
-      </c>
-      <c r="F83" s="4">
-        <v>26155.05</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="3">
-        <v>43516</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K83" s="3">
-        <v>43516</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B84" s="6">
-        <v>1900000440</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="3">
-        <v>43516</v>
-      </c>
-      <c r="F84" s="4">
-        <v>31673.86</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="3">
-        <v>43516</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K84" s="3">
-        <v>43516</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B85" s="6">
-        <v>1900001834</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="3">
-        <v>41877</v>
-      </c>
-      <c r="F85" s="4">
-        <v>6048704.4800000004</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="3">
-        <v>41877</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" s="3">
-        <v>41877</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B86" s="6">
-        <v>1900002131</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="3">
-        <v>42577</v>
-      </c>
-      <c r="F86" s="4">
-        <v>841835.61</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="3">
-        <v>42577</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="3">
-        <v>42577</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B87" s="6">
-        <v>2000014088</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="3">
-        <v>43265</v>
-      </c>
-      <c r="F87" s="4">
-        <v>1806888.78</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" s="3">
-        <v>43265</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" s="3">
-        <v>43265</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B88" s="6">
-        <v>2000023678</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="3">
-        <v>43007</v>
-      </c>
-      <c r="F88" s="4">
-        <v>25384389.940000001</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" s="3">
-        <v>43007</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="J88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="3">
-        <v>43007</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>2000015</v>
-      </c>
-      <c r="B89" s="6">
-        <v>2000025866</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="3">
-        <v>43039</v>
-      </c>
-      <c r="F89" s="4">
-        <v>46994.87</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="3">
-        <v>43039</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-      <c r="J89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" s="3">
-        <v>43039</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -37395,1527 +34130,8 @@
       <c r="P1751" s="1"/>
       <c r="Q1751" s="1"/>
     </row>
-    <row r="1752" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1752" s="1"/>
-      <c r="B1752" s="1"/>
-      <c r="C1752" s="1"/>
-      <c r="D1752" s="1"/>
-      <c r="E1752" s="3"/>
-      <c r="F1752" s="4"/>
-      <c r="G1752" s="1"/>
-      <c r="H1752" s="3"/>
-      <c r="I1752" s="3"/>
-      <c r="J1752" s="1"/>
-      <c r="K1752" s="3"/>
-      <c r="L1752" s="1"/>
-      <c r="M1752" s="1"/>
-      <c r="N1752" s="1"/>
-      <c r="O1752" s="1"/>
-      <c r="P1752" s="1"/>
-      <c r="Q1752" s="1"/>
-    </row>
-    <row r="1753" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1753" s="1"/>
-      <c r="B1753" s="1"/>
-      <c r="C1753" s="1"/>
-      <c r="D1753" s="1"/>
-      <c r="E1753" s="3"/>
-      <c r="F1753" s="4"/>
-      <c r="G1753" s="1"/>
-      <c r="H1753" s="3"/>
-      <c r="I1753" s="3"/>
-      <c r="J1753" s="1"/>
-      <c r="K1753" s="3"/>
-      <c r="L1753" s="1"/>
-      <c r="M1753" s="1"/>
-      <c r="N1753" s="1"/>
-      <c r="O1753" s="1"/>
-      <c r="P1753" s="1"/>
-      <c r="Q1753" s="1"/>
-    </row>
-    <row r="1754" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1754" s="1"/>
-      <c r="B1754" s="1"/>
-      <c r="C1754" s="1"/>
-      <c r="D1754" s="1"/>
-      <c r="E1754" s="3"/>
-      <c r="F1754" s="4"/>
-      <c r="G1754" s="1"/>
-      <c r="H1754" s="3"/>
-      <c r="I1754" s="3"/>
-      <c r="J1754" s="1"/>
-      <c r="K1754" s="3"/>
-      <c r="L1754" s="1"/>
-      <c r="M1754" s="1"/>
-      <c r="N1754" s="1"/>
-      <c r="O1754" s="1"/>
-      <c r="P1754" s="1"/>
-      <c r="Q1754" s="1"/>
-    </row>
-    <row r="1755" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1755" s="1"/>
-      <c r="B1755" s="1"/>
-      <c r="C1755" s="1"/>
-      <c r="D1755" s="1"/>
-      <c r="E1755" s="3"/>
-      <c r="F1755" s="4"/>
-      <c r="G1755" s="1"/>
-      <c r="H1755" s="3"/>
-      <c r="I1755" s="3"/>
-      <c r="J1755" s="1"/>
-      <c r="K1755" s="3"/>
-      <c r="L1755" s="1"/>
-      <c r="M1755" s="1"/>
-      <c r="N1755" s="1"/>
-      <c r="O1755" s="1"/>
-      <c r="P1755" s="1"/>
-      <c r="Q1755" s="1"/>
-    </row>
-    <row r="1756" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1756" s="1"/>
-      <c r="B1756" s="1"/>
-      <c r="C1756" s="1"/>
-      <c r="D1756" s="1"/>
-      <c r="E1756" s="3"/>
-      <c r="F1756" s="4"/>
-      <c r="G1756" s="1"/>
-      <c r="H1756" s="3"/>
-      <c r="I1756" s="3"/>
-      <c r="J1756" s="1"/>
-      <c r="K1756" s="3"/>
-      <c r="L1756" s="1"/>
-      <c r="M1756" s="1"/>
-      <c r="N1756" s="1"/>
-      <c r="O1756" s="1"/>
-      <c r="P1756" s="1"/>
-      <c r="Q1756" s="1"/>
-    </row>
-    <row r="1757" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1757" s="1"/>
-      <c r="B1757" s="1"/>
-      <c r="C1757" s="1"/>
-      <c r="D1757" s="1"/>
-      <c r="E1757" s="3"/>
-      <c r="F1757" s="4"/>
-      <c r="G1757" s="1"/>
-      <c r="H1757" s="3"/>
-      <c r="I1757" s="3"/>
-      <c r="J1757" s="1"/>
-      <c r="K1757" s="3"/>
-      <c r="L1757" s="1"/>
-      <c r="M1757" s="1"/>
-      <c r="N1757" s="1"/>
-      <c r="O1757" s="1"/>
-      <c r="P1757" s="1"/>
-      <c r="Q1757" s="1"/>
-    </row>
-    <row r="1758" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1758" s="1"/>
-      <c r="B1758" s="1"/>
-      <c r="C1758" s="1"/>
-      <c r="D1758" s="1"/>
-      <c r="E1758" s="3"/>
-      <c r="F1758" s="4"/>
-      <c r="G1758" s="1"/>
-      <c r="H1758" s="3"/>
-      <c r="I1758" s="3"/>
-      <c r="J1758" s="1"/>
-      <c r="K1758" s="3"/>
-      <c r="L1758" s="1"/>
-      <c r="M1758" s="1"/>
-      <c r="N1758" s="1"/>
-      <c r="O1758" s="1"/>
-      <c r="P1758" s="1"/>
-      <c r="Q1758" s="1"/>
-    </row>
-    <row r="1759" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1759" s="1"/>
-      <c r="B1759" s="1"/>
-      <c r="C1759" s="1"/>
-      <c r="D1759" s="1"/>
-      <c r="E1759" s="3"/>
-      <c r="F1759" s="4"/>
-      <c r="G1759" s="1"/>
-      <c r="H1759" s="3"/>
-      <c r="I1759" s="3"/>
-      <c r="J1759" s="1"/>
-      <c r="K1759" s="3"/>
-      <c r="L1759" s="1"/>
-      <c r="M1759" s="1"/>
-      <c r="N1759" s="1"/>
-      <c r="O1759" s="1"/>
-      <c r="P1759" s="1"/>
-      <c r="Q1759" s="1"/>
-    </row>
-    <row r="1760" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1760" s="1"/>
-      <c r="B1760" s="1"/>
-      <c r="C1760" s="1"/>
-      <c r="D1760" s="1"/>
-      <c r="E1760" s="3"/>
-      <c r="F1760" s="4"/>
-      <c r="G1760" s="1"/>
-      <c r="H1760" s="3"/>
-      <c r="I1760" s="3"/>
-      <c r="J1760" s="1"/>
-      <c r="K1760" s="3"/>
-      <c r="L1760" s="1"/>
-      <c r="M1760" s="1"/>
-      <c r="N1760" s="1"/>
-      <c r="O1760" s="1"/>
-      <c r="P1760" s="1"/>
-      <c r="Q1760" s="1"/>
-    </row>
-    <row r="1761" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1761" s="1"/>
-      <c r="B1761" s="1"/>
-      <c r="C1761" s="1"/>
-      <c r="D1761" s="1"/>
-      <c r="E1761" s="3"/>
-      <c r="F1761" s="4"/>
-      <c r="G1761" s="1"/>
-      <c r="H1761" s="3"/>
-      <c r="I1761" s="3"/>
-      <c r="J1761" s="1"/>
-      <c r="K1761" s="3"/>
-      <c r="L1761" s="1"/>
-      <c r="M1761" s="1"/>
-      <c r="N1761" s="1"/>
-      <c r="O1761" s="1"/>
-      <c r="P1761" s="1"/>
-      <c r="Q1761" s="1"/>
-    </row>
-    <row r="1762" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1762" s="1"/>
-      <c r="B1762" s="1"/>
-      <c r="C1762" s="1"/>
-      <c r="D1762" s="1"/>
-      <c r="E1762" s="3"/>
-      <c r="F1762" s="4"/>
-      <c r="G1762" s="1"/>
-      <c r="H1762" s="3"/>
-      <c r="I1762" s="3"/>
-      <c r="J1762" s="1"/>
-      <c r="K1762" s="3"/>
-      <c r="L1762" s="1"/>
-      <c r="M1762" s="1"/>
-      <c r="N1762" s="1"/>
-      <c r="O1762" s="1"/>
-      <c r="P1762" s="1"/>
-      <c r="Q1762" s="1"/>
-    </row>
-    <row r="1763" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1763" s="1"/>
-      <c r="B1763" s="1"/>
-      <c r="C1763" s="1"/>
-      <c r="D1763" s="1"/>
-      <c r="E1763" s="3"/>
-      <c r="F1763" s="4"/>
-      <c r="G1763" s="1"/>
-      <c r="H1763" s="3"/>
-      <c r="I1763" s="3"/>
-      <c r="J1763" s="1"/>
-      <c r="K1763" s="3"/>
-      <c r="L1763" s="1"/>
-      <c r="M1763" s="1"/>
-      <c r="N1763" s="1"/>
-      <c r="O1763" s="1"/>
-      <c r="P1763" s="1"/>
-      <c r="Q1763" s="1"/>
-    </row>
-    <row r="1764" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1764" s="1"/>
-      <c r="B1764" s="1"/>
-      <c r="C1764" s="1"/>
-      <c r="D1764" s="1"/>
-      <c r="E1764" s="3"/>
-      <c r="F1764" s="4"/>
-      <c r="G1764" s="1"/>
-      <c r="H1764" s="3"/>
-      <c r="I1764" s="3"/>
-      <c r="J1764" s="1"/>
-      <c r="K1764" s="3"/>
-      <c r="L1764" s="1"/>
-      <c r="M1764" s="1"/>
-      <c r="N1764" s="1"/>
-      <c r="O1764" s="1"/>
-      <c r="P1764" s="1"/>
-      <c r="Q1764" s="1"/>
-    </row>
-    <row r="1765" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1765" s="1"/>
-      <c r="B1765" s="1"/>
-      <c r="C1765" s="1"/>
-      <c r="D1765" s="1"/>
-      <c r="E1765" s="3"/>
-      <c r="F1765" s="4"/>
-      <c r="G1765" s="1"/>
-      <c r="H1765" s="3"/>
-      <c r="I1765" s="3"/>
-      <c r="J1765" s="1"/>
-      <c r="K1765" s="3"/>
-      <c r="L1765" s="1"/>
-      <c r="M1765" s="1"/>
-      <c r="N1765" s="1"/>
-      <c r="O1765" s="1"/>
-      <c r="P1765" s="1"/>
-      <c r="Q1765" s="1"/>
-    </row>
-    <row r="1766" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1766" s="1"/>
-      <c r="B1766" s="1"/>
-      <c r="C1766" s="1"/>
-      <c r="D1766" s="1"/>
-      <c r="E1766" s="3"/>
-      <c r="F1766" s="4"/>
-      <c r="G1766" s="1"/>
-      <c r="H1766" s="3"/>
-      <c r="I1766" s="3"/>
-      <c r="J1766" s="1"/>
-      <c r="K1766" s="3"/>
-      <c r="L1766" s="1"/>
-      <c r="M1766" s="1"/>
-      <c r="N1766" s="1"/>
-      <c r="O1766" s="1"/>
-      <c r="P1766" s="1"/>
-      <c r="Q1766" s="1"/>
-    </row>
-    <row r="1767" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1767" s="1"/>
-      <c r="B1767" s="1"/>
-      <c r="C1767" s="1"/>
-      <c r="D1767" s="1"/>
-      <c r="E1767" s="3"/>
-      <c r="F1767" s="4"/>
-      <c r="G1767" s="1"/>
-      <c r="H1767" s="3"/>
-      <c r="I1767" s="3"/>
-      <c r="J1767" s="1"/>
-      <c r="K1767" s="3"/>
-      <c r="L1767" s="1"/>
-      <c r="M1767" s="1"/>
-      <c r="N1767" s="1"/>
-      <c r="O1767" s="1"/>
-      <c r="P1767" s="1"/>
-      <c r="Q1767" s="1"/>
-    </row>
-    <row r="1768" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1768" s="1"/>
-      <c r="B1768" s="1"/>
-      <c r="C1768" s="1"/>
-      <c r="D1768" s="1"/>
-      <c r="E1768" s="3"/>
-      <c r="F1768" s="4"/>
-      <c r="G1768" s="1"/>
-      <c r="H1768" s="3"/>
-      <c r="I1768" s="3"/>
-      <c r="J1768" s="1"/>
-      <c r="K1768" s="3"/>
-      <c r="L1768" s="1"/>
-      <c r="M1768" s="1"/>
-      <c r="N1768" s="1"/>
-      <c r="O1768" s="1"/>
-      <c r="P1768" s="1"/>
-      <c r="Q1768" s="1"/>
-    </row>
-    <row r="1769" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1769" s="1"/>
-      <c r="B1769" s="1"/>
-      <c r="C1769" s="1"/>
-      <c r="D1769" s="1"/>
-      <c r="E1769" s="3"/>
-      <c r="F1769" s="4"/>
-      <c r="G1769" s="1"/>
-      <c r="H1769" s="3"/>
-      <c r="I1769" s="3"/>
-      <c r="J1769" s="1"/>
-      <c r="K1769" s="3"/>
-      <c r="L1769" s="1"/>
-      <c r="M1769" s="1"/>
-      <c r="N1769" s="1"/>
-      <c r="O1769" s="1"/>
-      <c r="P1769" s="1"/>
-      <c r="Q1769" s="1"/>
-    </row>
-    <row r="1770" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1770" s="1"/>
-      <c r="B1770" s="1"/>
-      <c r="C1770" s="1"/>
-      <c r="D1770" s="1"/>
-      <c r="E1770" s="3"/>
-      <c r="F1770" s="4"/>
-      <c r="G1770" s="1"/>
-      <c r="H1770" s="3"/>
-      <c r="I1770" s="3"/>
-      <c r="J1770" s="1"/>
-      <c r="K1770" s="3"/>
-      <c r="L1770" s="1"/>
-      <c r="M1770" s="1"/>
-      <c r="N1770" s="1"/>
-      <c r="O1770" s="1"/>
-      <c r="P1770" s="1"/>
-      <c r="Q1770" s="1"/>
-    </row>
-    <row r="1771" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1771" s="1"/>
-      <c r="B1771" s="1"/>
-      <c r="C1771" s="1"/>
-      <c r="D1771" s="1"/>
-      <c r="E1771" s="3"/>
-      <c r="F1771" s="4"/>
-      <c r="G1771" s="1"/>
-      <c r="H1771" s="3"/>
-      <c r="I1771" s="3"/>
-      <c r="J1771" s="1"/>
-      <c r="K1771" s="3"/>
-      <c r="L1771" s="1"/>
-      <c r="M1771" s="1"/>
-      <c r="N1771" s="1"/>
-      <c r="O1771" s="1"/>
-      <c r="P1771" s="1"/>
-      <c r="Q1771" s="1"/>
-    </row>
-    <row r="1772" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1772" s="1"/>
-      <c r="B1772" s="1"/>
-      <c r="C1772" s="1"/>
-      <c r="D1772" s="1"/>
-      <c r="E1772" s="3"/>
-      <c r="F1772" s="4"/>
-      <c r="G1772" s="1"/>
-      <c r="H1772" s="3"/>
-      <c r="I1772" s="3"/>
-      <c r="J1772" s="1"/>
-      <c r="K1772" s="3"/>
-      <c r="L1772" s="1"/>
-      <c r="M1772" s="1"/>
-      <c r="N1772" s="1"/>
-      <c r="O1772" s="1"/>
-      <c r="P1772" s="1"/>
-      <c r="Q1772" s="1"/>
-    </row>
-    <row r="1773" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1773" s="1"/>
-      <c r="B1773" s="1"/>
-      <c r="C1773" s="1"/>
-      <c r="D1773" s="1"/>
-      <c r="E1773" s="3"/>
-      <c r="F1773" s="4"/>
-      <c r="G1773" s="1"/>
-      <c r="H1773" s="3"/>
-      <c r="I1773" s="3"/>
-      <c r="J1773" s="1"/>
-      <c r="K1773" s="3"/>
-      <c r="L1773" s="1"/>
-      <c r="M1773" s="1"/>
-      <c r="N1773" s="1"/>
-      <c r="O1773" s="1"/>
-      <c r="P1773" s="1"/>
-      <c r="Q1773" s="1"/>
-    </row>
-    <row r="1774" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1774" s="1"/>
-      <c r="B1774" s="1"/>
-      <c r="C1774" s="1"/>
-      <c r="D1774" s="1"/>
-      <c r="E1774" s="3"/>
-      <c r="F1774" s="4"/>
-      <c r="G1774" s="1"/>
-      <c r="H1774" s="3"/>
-      <c r="I1774" s="3"/>
-      <c r="J1774" s="1"/>
-      <c r="K1774" s="3"/>
-      <c r="L1774" s="1"/>
-      <c r="M1774" s="1"/>
-      <c r="N1774" s="1"/>
-      <c r="O1774" s="1"/>
-      <c r="P1774" s="1"/>
-      <c r="Q1774" s="1"/>
-    </row>
-    <row r="1775" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1775" s="1"/>
-      <c r="B1775" s="1"/>
-      <c r="C1775" s="1"/>
-      <c r="D1775" s="1"/>
-      <c r="E1775" s="3"/>
-      <c r="F1775" s="4"/>
-      <c r="G1775" s="1"/>
-      <c r="H1775" s="3"/>
-      <c r="I1775" s="3"/>
-      <c r="J1775" s="1"/>
-      <c r="K1775" s="3"/>
-      <c r="L1775" s="1"/>
-      <c r="M1775" s="1"/>
-      <c r="N1775" s="1"/>
-      <c r="O1775" s="1"/>
-      <c r="P1775" s="1"/>
-      <c r="Q1775" s="1"/>
-    </row>
-    <row r="1776" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1776" s="1"/>
-      <c r="B1776" s="1"/>
-      <c r="C1776" s="1"/>
-      <c r="D1776" s="1"/>
-      <c r="E1776" s="3"/>
-      <c r="F1776" s="4"/>
-      <c r="G1776" s="1"/>
-      <c r="H1776" s="3"/>
-      <c r="I1776" s="3"/>
-      <c r="J1776" s="1"/>
-      <c r="K1776" s="3"/>
-      <c r="L1776" s="1"/>
-      <c r="M1776" s="1"/>
-      <c r="N1776" s="1"/>
-      <c r="O1776" s="1"/>
-      <c r="P1776" s="1"/>
-      <c r="Q1776" s="1"/>
-    </row>
-    <row r="1777" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1777" s="1"/>
-      <c r="B1777" s="1"/>
-      <c r="C1777" s="1"/>
-      <c r="D1777" s="1"/>
-      <c r="E1777" s="3"/>
-      <c r="F1777" s="4"/>
-      <c r="G1777" s="1"/>
-      <c r="H1777" s="3"/>
-      <c r="I1777" s="3"/>
-      <c r="J1777" s="1"/>
-      <c r="K1777" s="3"/>
-      <c r="L1777" s="1"/>
-      <c r="M1777" s="1"/>
-      <c r="N1777" s="1"/>
-      <c r="O1777" s="1"/>
-      <c r="P1777" s="1"/>
-      <c r="Q1777" s="1"/>
-    </row>
-    <row r="1778" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1778" s="1"/>
-      <c r="B1778" s="1"/>
-      <c r="C1778" s="1"/>
-      <c r="D1778" s="1"/>
-      <c r="E1778" s="3"/>
-      <c r="F1778" s="4"/>
-      <c r="G1778" s="1"/>
-      <c r="H1778" s="3"/>
-      <c r="I1778" s="3"/>
-      <c r="J1778" s="1"/>
-      <c r="K1778" s="3"/>
-      <c r="L1778" s="1"/>
-      <c r="M1778" s="1"/>
-      <c r="N1778" s="1"/>
-      <c r="O1778" s="1"/>
-      <c r="P1778" s="1"/>
-      <c r="Q1778" s="1"/>
-    </row>
-    <row r="1779" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1779" s="1"/>
-      <c r="B1779" s="1"/>
-      <c r="C1779" s="1"/>
-      <c r="D1779" s="1"/>
-      <c r="E1779" s="3"/>
-      <c r="F1779" s="4"/>
-      <c r="G1779" s="1"/>
-      <c r="H1779" s="3"/>
-      <c r="I1779" s="3"/>
-      <c r="J1779" s="1"/>
-      <c r="K1779" s="3"/>
-      <c r="L1779" s="1"/>
-      <c r="M1779" s="1"/>
-      <c r="N1779" s="1"/>
-      <c r="O1779" s="1"/>
-      <c r="P1779" s="1"/>
-      <c r="Q1779" s="1"/>
-    </row>
-    <row r="1780" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1780" s="1"/>
-      <c r="B1780" s="1"/>
-      <c r="C1780" s="1"/>
-      <c r="D1780" s="1"/>
-      <c r="E1780" s="3"/>
-      <c r="F1780" s="4"/>
-      <c r="G1780" s="1"/>
-      <c r="H1780" s="3"/>
-      <c r="I1780" s="3"/>
-      <c r="J1780" s="1"/>
-      <c r="K1780" s="3"/>
-      <c r="L1780" s="1"/>
-      <c r="M1780" s="1"/>
-      <c r="N1780" s="1"/>
-      <c r="O1780" s="1"/>
-      <c r="P1780" s="1"/>
-      <c r="Q1780" s="1"/>
-    </row>
-    <row r="1781" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1781" s="1"/>
-      <c r="B1781" s="1"/>
-      <c r="C1781" s="1"/>
-      <c r="D1781" s="1"/>
-      <c r="E1781" s="3"/>
-      <c r="F1781" s="4"/>
-      <c r="G1781" s="1"/>
-      <c r="H1781" s="3"/>
-      <c r="I1781" s="3"/>
-      <c r="J1781" s="1"/>
-      <c r="K1781" s="3"/>
-      <c r="L1781" s="1"/>
-      <c r="M1781" s="1"/>
-      <c r="N1781" s="1"/>
-      <c r="O1781" s="1"/>
-      <c r="P1781" s="1"/>
-      <c r="Q1781" s="1"/>
-    </row>
-    <row r="1782" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1782" s="1"/>
-      <c r="B1782" s="1"/>
-      <c r="C1782" s="1"/>
-      <c r="D1782" s="1"/>
-      <c r="E1782" s="3"/>
-      <c r="F1782" s="4"/>
-      <c r="G1782" s="1"/>
-      <c r="H1782" s="3"/>
-      <c r="I1782" s="3"/>
-      <c r="J1782" s="1"/>
-      <c r="K1782" s="3"/>
-      <c r="L1782" s="1"/>
-      <c r="M1782" s="1"/>
-      <c r="N1782" s="1"/>
-      <c r="O1782" s="1"/>
-      <c r="P1782" s="1"/>
-      <c r="Q1782" s="1"/>
-    </row>
-    <row r="1783" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1783" s="1"/>
-      <c r="B1783" s="1"/>
-      <c r="C1783" s="1"/>
-      <c r="D1783" s="1"/>
-      <c r="E1783" s="3"/>
-      <c r="F1783" s="4"/>
-      <c r="G1783" s="1"/>
-      <c r="H1783" s="3"/>
-      <c r="I1783" s="3"/>
-      <c r="J1783" s="1"/>
-      <c r="K1783" s="3"/>
-      <c r="L1783" s="1"/>
-      <c r="M1783" s="1"/>
-      <c r="N1783" s="1"/>
-      <c r="O1783" s="1"/>
-      <c r="P1783" s="1"/>
-      <c r="Q1783" s="1"/>
-    </row>
-    <row r="1784" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1784" s="1"/>
-      <c r="B1784" s="1"/>
-      <c r="C1784" s="1"/>
-      <c r="D1784" s="1"/>
-      <c r="E1784" s="3"/>
-      <c r="F1784" s="4"/>
-      <c r="G1784" s="1"/>
-      <c r="H1784" s="3"/>
-      <c r="I1784" s="3"/>
-      <c r="J1784" s="1"/>
-      <c r="K1784" s="3"/>
-      <c r="L1784" s="1"/>
-      <c r="M1784" s="1"/>
-      <c r="N1784" s="1"/>
-      <c r="O1784" s="1"/>
-      <c r="P1784" s="1"/>
-      <c r="Q1784" s="1"/>
-    </row>
-    <row r="1785" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1785" s="1"/>
-      <c r="B1785" s="1"/>
-      <c r="C1785" s="1"/>
-      <c r="D1785" s="1"/>
-      <c r="E1785" s="3"/>
-      <c r="F1785" s="4"/>
-      <c r="G1785" s="1"/>
-      <c r="H1785" s="3"/>
-      <c r="I1785" s="3"/>
-      <c r="J1785" s="1"/>
-      <c r="K1785" s="3"/>
-      <c r="L1785" s="1"/>
-      <c r="M1785" s="1"/>
-      <c r="N1785" s="1"/>
-      <c r="O1785" s="1"/>
-      <c r="P1785" s="1"/>
-      <c r="Q1785" s="1"/>
-    </row>
-    <row r="1786" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1786" s="1"/>
-      <c r="B1786" s="1"/>
-      <c r="C1786" s="1"/>
-      <c r="D1786" s="1"/>
-      <c r="E1786" s="3"/>
-      <c r="F1786" s="4"/>
-      <c r="G1786" s="1"/>
-      <c r="H1786" s="3"/>
-      <c r="I1786" s="3"/>
-      <c r="J1786" s="1"/>
-      <c r="K1786" s="3"/>
-      <c r="L1786" s="1"/>
-      <c r="M1786" s="1"/>
-      <c r="N1786" s="1"/>
-      <c r="O1786" s="1"/>
-      <c r="P1786" s="1"/>
-      <c r="Q1786" s="1"/>
-    </row>
-    <row r="1787" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1787" s="1"/>
-      <c r="B1787" s="1"/>
-      <c r="C1787" s="1"/>
-      <c r="D1787" s="1"/>
-      <c r="E1787" s="3"/>
-      <c r="F1787" s="4"/>
-      <c r="G1787" s="1"/>
-      <c r="H1787" s="3"/>
-      <c r="I1787" s="3"/>
-      <c r="J1787" s="1"/>
-      <c r="K1787" s="3"/>
-      <c r="L1787" s="1"/>
-      <c r="M1787" s="1"/>
-      <c r="N1787" s="1"/>
-      <c r="O1787" s="1"/>
-      <c r="P1787" s="1"/>
-      <c r="Q1787" s="1"/>
-    </row>
-    <row r="1788" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1788" s="1"/>
-      <c r="B1788" s="1"/>
-      <c r="C1788" s="1"/>
-      <c r="D1788" s="1"/>
-      <c r="E1788" s="3"/>
-      <c r="F1788" s="4"/>
-      <c r="G1788" s="1"/>
-      <c r="H1788" s="3"/>
-      <c r="I1788" s="3"/>
-      <c r="J1788" s="1"/>
-      <c r="K1788" s="3"/>
-      <c r="L1788" s="1"/>
-      <c r="M1788" s="1"/>
-      <c r="N1788" s="1"/>
-      <c r="O1788" s="1"/>
-      <c r="P1788" s="1"/>
-      <c r="Q1788" s="1"/>
-    </row>
-    <row r="1789" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1789" s="1"/>
-      <c r="B1789" s="1"/>
-      <c r="C1789" s="1"/>
-      <c r="D1789" s="1"/>
-      <c r="E1789" s="3"/>
-      <c r="F1789" s="4"/>
-      <c r="G1789" s="1"/>
-      <c r="H1789" s="3"/>
-      <c r="I1789" s="3"/>
-      <c r="J1789" s="1"/>
-      <c r="K1789" s="3"/>
-      <c r="L1789" s="1"/>
-      <c r="M1789" s="1"/>
-      <c r="N1789" s="1"/>
-      <c r="O1789" s="1"/>
-      <c r="P1789" s="1"/>
-      <c r="Q1789" s="1"/>
-    </row>
-    <row r="1790" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1790" s="1"/>
-      <c r="B1790" s="1"/>
-      <c r="C1790" s="1"/>
-      <c r="D1790" s="1"/>
-      <c r="E1790" s="3"/>
-      <c r="F1790" s="4"/>
-      <c r="G1790" s="1"/>
-      <c r="H1790" s="3"/>
-      <c r="I1790" s="3"/>
-      <c r="J1790" s="1"/>
-      <c r="K1790" s="3"/>
-      <c r="L1790" s="1"/>
-      <c r="M1790" s="1"/>
-      <c r="N1790" s="1"/>
-      <c r="O1790" s="1"/>
-      <c r="P1790" s="1"/>
-      <c r="Q1790" s="1"/>
-    </row>
-    <row r="1791" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1791" s="1"/>
-      <c r="B1791" s="1"/>
-      <c r="C1791" s="1"/>
-      <c r="D1791" s="1"/>
-      <c r="E1791" s="3"/>
-      <c r="F1791" s="4"/>
-      <c r="G1791" s="1"/>
-      <c r="H1791" s="3"/>
-      <c r="I1791" s="3"/>
-      <c r="J1791" s="1"/>
-      <c r="K1791" s="3"/>
-      <c r="L1791" s="1"/>
-      <c r="M1791" s="1"/>
-      <c r="N1791" s="1"/>
-      <c r="O1791" s="1"/>
-      <c r="P1791" s="1"/>
-      <c r="Q1791" s="1"/>
-    </row>
-    <row r="1792" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1792" s="1"/>
-      <c r="B1792" s="1"/>
-      <c r="C1792" s="1"/>
-      <c r="D1792" s="1"/>
-      <c r="E1792" s="3"/>
-      <c r="F1792" s="4"/>
-      <c r="G1792" s="1"/>
-      <c r="H1792" s="3"/>
-      <c r="I1792" s="3"/>
-      <c r="J1792" s="1"/>
-      <c r="K1792" s="3"/>
-      <c r="L1792" s="1"/>
-      <c r="M1792" s="1"/>
-      <c r="N1792" s="1"/>
-      <c r="O1792" s="1"/>
-      <c r="P1792" s="1"/>
-      <c r="Q1792" s="1"/>
-    </row>
-    <row r="1793" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1793" s="1"/>
-      <c r="B1793" s="1"/>
-      <c r="C1793" s="1"/>
-      <c r="D1793" s="1"/>
-      <c r="E1793" s="3"/>
-      <c r="F1793" s="4"/>
-      <c r="G1793" s="1"/>
-      <c r="H1793" s="3"/>
-      <c r="I1793" s="3"/>
-      <c r="J1793" s="1"/>
-      <c r="K1793" s="3"/>
-      <c r="L1793" s="1"/>
-      <c r="M1793" s="1"/>
-      <c r="N1793" s="1"/>
-      <c r="O1793" s="1"/>
-      <c r="P1793" s="1"/>
-      <c r="Q1793" s="1"/>
-    </row>
-    <row r="1794" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1794" s="1"/>
-      <c r="B1794" s="1"/>
-      <c r="C1794" s="1"/>
-      <c r="D1794" s="1"/>
-      <c r="E1794" s="3"/>
-      <c r="F1794" s="4"/>
-      <c r="G1794" s="1"/>
-      <c r="H1794" s="3"/>
-      <c r="I1794" s="3"/>
-      <c r="J1794" s="1"/>
-      <c r="K1794" s="3"/>
-      <c r="L1794" s="1"/>
-      <c r="M1794" s="1"/>
-      <c r="N1794" s="1"/>
-      <c r="O1794" s="1"/>
-      <c r="P1794" s="1"/>
-      <c r="Q1794" s="1"/>
-    </row>
-    <row r="1795" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1795" s="1"/>
-      <c r="B1795" s="1"/>
-      <c r="C1795" s="1"/>
-      <c r="D1795" s="1"/>
-      <c r="E1795" s="3"/>
-      <c r="F1795" s="4"/>
-      <c r="G1795" s="1"/>
-      <c r="H1795" s="3"/>
-      <c r="I1795" s="3"/>
-      <c r="J1795" s="1"/>
-      <c r="K1795" s="3"/>
-      <c r="L1795" s="1"/>
-      <c r="M1795" s="1"/>
-      <c r="N1795" s="1"/>
-      <c r="O1795" s="1"/>
-      <c r="P1795" s="1"/>
-      <c r="Q1795" s="1"/>
-    </row>
-    <row r="1796" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1796" s="1"/>
-      <c r="B1796" s="1"/>
-      <c r="C1796" s="1"/>
-      <c r="D1796" s="1"/>
-      <c r="E1796" s="3"/>
-      <c r="F1796" s="4"/>
-      <c r="G1796" s="1"/>
-      <c r="H1796" s="3"/>
-      <c r="I1796" s="3"/>
-      <c r="J1796" s="1"/>
-      <c r="K1796" s="3"/>
-      <c r="L1796" s="1"/>
-      <c r="M1796" s="1"/>
-      <c r="N1796" s="1"/>
-      <c r="O1796" s="1"/>
-      <c r="P1796" s="1"/>
-      <c r="Q1796" s="1"/>
-    </row>
-    <row r="1797" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1797" s="1"/>
-      <c r="B1797" s="1"/>
-      <c r="C1797" s="1"/>
-      <c r="D1797" s="1"/>
-      <c r="E1797" s="3"/>
-      <c r="F1797" s="4"/>
-      <c r="G1797" s="1"/>
-      <c r="H1797" s="3"/>
-      <c r="I1797" s="3"/>
-      <c r="J1797" s="1"/>
-      <c r="K1797" s="3"/>
-      <c r="L1797" s="1"/>
-      <c r="M1797" s="1"/>
-      <c r="N1797" s="1"/>
-      <c r="O1797" s="1"/>
-      <c r="P1797" s="1"/>
-      <c r="Q1797" s="1"/>
-    </row>
-    <row r="1798" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1798" s="1"/>
-      <c r="B1798" s="1"/>
-      <c r="C1798" s="1"/>
-      <c r="D1798" s="1"/>
-      <c r="E1798" s="3"/>
-      <c r="F1798" s="4"/>
-      <c r="G1798" s="1"/>
-      <c r="H1798" s="3"/>
-      <c r="I1798" s="3"/>
-      <c r="J1798" s="1"/>
-      <c r="K1798" s="3"/>
-      <c r="L1798" s="1"/>
-      <c r="M1798" s="1"/>
-      <c r="N1798" s="1"/>
-      <c r="O1798" s="1"/>
-      <c r="P1798" s="1"/>
-      <c r="Q1798" s="1"/>
-    </row>
-    <row r="1799" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1799" s="1"/>
-      <c r="B1799" s="1"/>
-      <c r="C1799" s="1"/>
-      <c r="D1799" s="1"/>
-      <c r="E1799" s="3"/>
-      <c r="F1799" s="4"/>
-      <c r="G1799" s="1"/>
-      <c r="H1799" s="3"/>
-      <c r="I1799" s="3"/>
-      <c r="J1799" s="1"/>
-      <c r="K1799" s="3"/>
-      <c r="L1799" s="1"/>
-      <c r="M1799" s="1"/>
-      <c r="N1799" s="1"/>
-      <c r="O1799" s="1"/>
-      <c r="P1799" s="1"/>
-      <c r="Q1799" s="1"/>
-    </row>
-    <row r="1800" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1800" s="1"/>
-      <c r="B1800" s="1"/>
-      <c r="C1800" s="1"/>
-      <c r="D1800" s="1"/>
-      <c r="E1800" s="3"/>
-      <c r="F1800" s="4"/>
-      <c r="G1800" s="1"/>
-      <c r="H1800" s="3"/>
-      <c r="I1800" s="3"/>
-      <c r="J1800" s="1"/>
-      <c r="K1800" s="3"/>
-      <c r="L1800" s="1"/>
-      <c r="M1800" s="1"/>
-      <c r="N1800" s="1"/>
-      <c r="O1800" s="1"/>
-      <c r="P1800" s="1"/>
-      <c r="Q1800" s="1"/>
-    </row>
-    <row r="1801" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1801" s="1"/>
-      <c r="B1801" s="1"/>
-      <c r="C1801" s="1"/>
-      <c r="D1801" s="1"/>
-      <c r="E1801" s="3"/>
-      <c r="F1801" s="4"/>
-      <c r="G1801" s="1"/>
-      <c r="H1801" s="3"/>
-      <c r="I1801" s="3"/>
-      <c r="J1801" s="1"/>
-      <c r="K1801" s="3"/>
-      <c r="L1801" s="1"/>
-      <c r="M1801" s="1"/>
-      <c r="N1801" s="1"/>
-      <c r="O1801" s="1"/>
-      <c r="P1801" s="1"/>
-      <c r="Q1801" s="1"/>
-    </row>
-    <row r="1802" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1802" s="1"/>
-      <c r="B1802" s="1"/>
-      <c r="C1802" s="1"/>
-      <c r="D1802" s="1"/>
-      <c r="E1802" s="3"/>
-      <c r="F1802" s="4"/>
-      <c r="G1802" s="1"/>
-      <c r="H1802" s="3"/>
-      <c r="I1802" s="3"/>
-      <c r="J1802" s="1"/>
-      <c r="K1802" s="3"/>
-      <c r="L1802" s="1"/>
-      <c r="M1802" s="1"/>
-      <c r="N1802" s="1"/>
-      <c r="O1802" s="1"/>
-      <c r="P1802" s="1"/>
-      <c r="Q1802" s="1"/>
-    </row>
-    <row r="1803" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1803" s="1"/>
-      <c r="B1803" s="1"/>
-      <c r="C1803" s="1"/>
-      <c r="D1803" s="1"/>
-      <c r="E1803" s="3"/>
-      <c r="F1803" s="4"/>
-      <c r="G1803" s="1"/>
-      <c r="H1803" s="3"/>
-      <c r="I1803" s="3"/>
-      <c r="J1803" s="1"/>
-      <c r="K1803" s="3"/>
-      <c r="L1803" s="1"/>
-      <c r="M1803" s="1"/>
-      <c r="N1803" s="1"/>
-      <c r="O1803" s="1"/>
-      <c r="P1803" s="1"/>
-      <c r="Q1803" s="1"/>
-    </row>
-    <row r="1804" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1804" s="1"/>
-      <c r="B1804" s="1"/>
-      <c r="C1804" s="1"/>
-      <c r="D1804" s="1"/>
-      <c r="E1804" s="3"/>
-      <c r="F1804" s="4"/>
-      <c r="G1804" s="1"/>
-      <c r="H1804" s="3"/>
-      <c r="I1804" s="3"/>
-      <c r="J1804" s="1"/>
-      <c r="K1804" s="3"/>
-      <c r="L1804" s="1"/>
-      <c r="M1804" s="1"/>
-      <c r="N1804" s="1"/>
-      <c r="O1804" s="1"/>
-      <c r="P1804" s="1"/>
-      <c r="Q1804" s="1"/>
-    </row>
-    <row r="1805" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1805" s="1"/>
-      <c r="B1805" s="1"/>
-      <c r="C1805" s="1"/>
-      <c r="D1805" s="1"/>
-      <c r="E1805" s="3"/>
-      <c r="F1805" s="4"/>
-      <c r="G1805" s="1"/>
-      <c r="H1805" s="3"/>
-      <c r="I1805" s="3"/>
-      <c r="J1805" s="1"/>
-      <c r="K1805" s="3"/>
-      <c r="L1805" s="1"/>
-      <c r="M1805" s="1"/>
-      <c r="N1805" s="1"/>
-      <c r="O1805" s="1"/>
-      <c r="P1805" s="1"/>
-      <c r="Q1805" s="1"/>
-    </row>
-    <row r="1806" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1806" s="1"/>
-      <c r="B1806" s="1"/>
-      <c r="C1806" s="1"/>
-      <c r="D1806" s="1"/>
-      <c r="E1806" s="3"/>
-      <c r="F1806" s="4"/>
-      <c r="G1806" s="1"/>
-      <c r="H1806" s="3"/>
-      <c r="I1806" s="3"/>
-      <c r="J1806" s="1"/>
-      <c r="K1806" s="3"/>
-      <c r="L1806" s="1"/>
-      <c r="M1806" s="1"/>
-      <c r="N1806" s="1"/>
-      <c r="O1806" s="1"/>
-      <c r="P1806" s="1"/>
-      <c r="Q1806" s="1"/>
-    </row>
-    <row r="1807" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1807" s="1"/>
-      <c r="B1807" s="1"/>
-      <c r="C1807" s="1"/>
-      <c r="D1807" s="1"/>
-      <c r="E1807" s="3"/>
-      <c r="F1807" s="4"/>
-      <c r="G1807" s="1"/>
-      <c r="H1807" s="3"/>
-      <c r="I1807" s="3"/>
-      <c r="J1807" s="1"/>
-      <c r="K1807" s="3"/>
-      <c r="L1807" s="1"/>
-      <c r="M1807" s="1"/>
-      <c r="N1807" s="1"/>
-      <c r="O1807" s="1"/>
-      <c r="P1807" s="1"/>
-      <c r="Q1807" s="1"/>
-    </row>
-    <row r="1808" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1808" s="1"/>
-      <c r="B1808" s="1"/>
-      <c r="C1808" s="1"/>
-      <c r="D1808" s="1"/>
-      <c r="E1808" s="3"/>
-      <c r="F1808" s="4"/>
-      <c r="G1808" s="1"/>
-      <c r="H1808" s="3"/>
-      <c r="I1808" s="3"/>
-      <c r="J1808" s="1"/>
-      <c r="K1808" s="3"/>
-      <c r="L1808" s="1"/>
-      <c r="M1808" s="1"/>
-      <c r="N1808" s="1"/>
-      <c r="O1808" s="1"/>
-      <c r="P1808" s="1"/>
-      <c r="Q1808" s="1"/>
-    </row>
-    <row r="1809" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1809" s="1"/>
-      <c r="B1809" s="1"/>
-      <c r="C1809" s="1"/>
-      <c r="D1809" s="1"/>
-      <c r="E1809" s="3"/>
-      <c r="F1809" s="4"/>
-      <c r="G1809" s="1"/>
-      <c r="H1809" s="3"/>
-      <c r="I1809" s="3"/>
-      <c r="J1809" s="1"/>
-      <c r="K1809" s="3"/>
-      <c r="L1809" s="1"/>
-      <c r="M1809" s="1"/>
-      <c r="N1809" s="1"/>
-      <c r="O1809" s="1"/>
-      <c r="P1809" s="1"/>
-      <c r="Q1809" s="1"/>
-    </row>
-    <row r="1810" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1810" s="1"/>
-      <c r="B1810" s="1"/>
-      <c r="C1810" s="1"/>
-      <c r="D1810" s="1"/>
-      <c r="E1810" s="3"/>
-      <c r="F1810" s="4"/>
-      <c r="G1810" s="1"/>
-      <c r="H1810" s="3"/>
-      <c r="I1810" s="3"/>
-      <c r="J1810" s="1"/>
-      <c r="K1810" s="3"/>
-      <c r="L1810" s="1"/>
-      <c r="M1810" s="1"/>
-      <c r="N1810" s="1"/>
-      <c r="O1810" s="1"/>
-      <c r="P1810" s="1"/>
-      <c r="Q1810" s="1"/>
-    </row>
-    <row r="1811" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1811" s="1"/>
-      <c r="B1811" s="1"/>
-      <c r="C1811" s="1"/>
-      <c r="D1811" s="1"/>
-      <c r="E1811" s="3"/>
-      <c r="F1811" s="4"/>
-      <c r="G1811" s="1"/>
-      <c r="H1811" s="3"/>
-      <c r="I1811" s="3"/>
-      <c r="J1811" s="1"/>
-      <c r="K1811" s="3"/>
-      <c r="L1811" s="1"/>
-      <c r="M1811" s="1"/>
-      <c r="N1811" s="1"/>
-      <c r="O1811" s="1"/>
-      <c r="P1811" s="1"/>
-      <c r="Q1811" s="1"/>
-    </row>
-    <row r="1812" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1812" s="1"/>
-      <c r="B1812" s="1"/>
-      <c r="C1812" s="1"/>
-      <c r="D1812" s="1"/>
-      <c r="E1812" s="3"/>
-      <c r="F1812" s="4"/>
-      <c r="G1812" s="1"/>
-      <c r="H1812" s="3"/>
-      <c r="I1812" s="3"/>
-      <c r="J1812" s="1"/>
-      <c r="K1812" s="3"/>
-      <c r="L1812" s="1"/>
-      <c r="M1812" s="1"/>
-      <c r="N1812" s="1"/>
-      <c r="O1812" s="1"/>
-      <c r="P1812" s="1"/>
-      <c r="Q1812" s="1"/>
-    </row>
-    <row r="1813" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1813" s="1"/>
-      <c r="B1813" s="1"/>
-      <c r="C1813" s="1"/>
-      <c r="D1813" s="1"/>
-      <c r="E1813" s="3"/>
-      <c r="F1813" s="4"/>
-      <c r="G1813" s="1"/>
-      <c r="H1813" s="3"/>
-      <c r="I1813" s="3"/>
-      <c r="J1813" s="1"/>
-      <c r="K1813" s="3"/>
-      <c r="L1813" s="1"/>
-      <c r="M1813" s="1"/>
-      <c r="N1813" s="1"/>
-      <c r="O1813" s="1"/>
-      <c r="P1813" s="1"/>
-      <c r="Q1813" s="1"/>
-    </row>
-    <row r="1814" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1814" s="1"/>
-      <c r="B1814" s="1"/>
-      <c r="C1814" s="1"/>
-      <c r="D1814" s="1"/>
-      <c r="E1814" s="3"/>
-      <c r="F1814" s="4"/>
-      <c r="G1814" s="1"/>
-      <c r="H1814" s="3"/>
-      <c r="I1814" s="3"/>
-      <c r="J1814" s="1"/>
-      <c r="K1814" s="3"/>
-      <c r="L1814" s="1"/>
-      <c r="M1814" s="1"/>
-      <c r="N1814" s="1"/>
-      <c r="O1814" s="1"/>
-      <c r="P1814" s="1"/>
-      <c r="Q1814" s="1"/>
-    </row>
-    <row r="1815" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1815" s="1"/>
-      <c r="B1815" s="1"/>
-      <c r="C1815" s="1"/>
-      <c r="D1815" s="1"/>
-      <c r="E1815" s="3"/>
-      <c r="F1815" s="4"/>
-      <c r="G1815" s="1"/>
-      <c r="H1815" s="3"/>
-      <c r="I1815" s="3"/>
-      <c r="J1815" s="1"/>
-      <c r="K1815" s="3"/>
-      <c r="L1815" s="1"/>
-      <c r="M1815" s="1"/>
-      <c r="N1815" s="1"/>
-      <c r="O1815" s="1"/>
-      <c r="P1815" s="1"/>
-      <c r="Q1815" s="1"/>
-    </row>
-    <row r="1816" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1816" s="1"/>
-      <c r="B1816" s="1"/>
-      <c r="C1816" s="1"/>
-      <c r="D1816" s="1"/>
-      <c r="E1816" s="3"/>
-      <c r="F1816" s="4"/>
-      <c r="G1816" s="1"/>
-      <c r="H1816" s="3"/>
-      <c r="I1816" s="3"/>
-      <c r="J1816" s="1"/>
-      <c r="K1816" s="3"/>
-      <c r="L1816" s="1"/>
-      <c r="M1816" s="1"/>
-      <c r="N1816" s="1"/>
-      <c r="O1816" s="1"/>
-      <c r="P1816" s="1"/>
-      <c r="Q1816" s="1"/>
-    </row>
-    <row r="1817" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1817" s="1"/>
-      <c r="B1817" s="1"/>
-      <c r="C1817" s="1"/>
-      <c r="D1817" s="1"/>
-      <c r="E1817" s="3"/>
-      <c r="F1817" s="4"/>
-      <c r="G1817" s="1"/>
-      <c r="H1817" s="3"/>
-      <c r="I1817" s="3"/>
-      <c r="J1817" s="1"/>
-      <c r="K1817" s="3"/>
-      <c r="L1817" s="1"/>
-      <c r="M1817" s="1"/>
-      <c r="N1817" s="1"/>
-      <c r="O1817" s="1"/>
-      <c r="P1817" s="1"/>
-      <c r="Q1817" s="1"/>
-    </row>
-    <row r="1818" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1818" s="1"/>
-      <c r="B1818" s="1"/>
-      <c r="C1818" s="1"/>
-      <c r="D1818" s="1"/>
-      <c r="E1818" s="3"/>
-      <c r="F1818" s="4"/>
-      <c r="G1818" s="1"/>
-      <c r="H1818" s="3"/>
-      <c r="I1818" s="3"/>
-      <c r="J1818" s="1"/>
-      <c r="K1818" s="3"/>
-      <c r="L1818" s="1"/>
-      <c r="M1818" s="1"/>
-      <c r="N1818" s="1"/>
-      <c r="O1818" s="1"/>
-      <c r="P1818" s="1"/>
-      <c r="Q1818" s="1"/>
-    </row>
-    <row r="1819" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1819" s="1"/>
-      <c r="B1819" s="1"/>
-      <c r="C1819" s="1"/>
-      <c r="D1819" s="1"/>
-      <c r="E1819" s="3"/>
-      <c r="F1819" s="4"/>
-      <c r="G1819" s="1"/>
-      <c r="H1819" s="3"/>
-      <c r="I1819" s="3"/>
-      <c r="J1819" s="1"/>
-      <c r="K1819" s="3"/>
-      <c r="L1819" s="1"/>
-      <c r="M1819" s="1"/>
-      <c r="N1819" s="1"/>
-      <c r="O1819" s="1"/>
-      <c r="P1819" s="1"/>
-      <c r="Q1819" s="1"/>
-    </row>
-    <row r="1820" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1820" s="1"/>
-      <c r="B1820" s="1"/>
-      <c r="C1820" s="1"/>
-      <c r="D1820" s="1"/>
-      <c r="E1820" s="3"/>
-      <c r="F1820" s="4"/>
-      <c r="G1820" s="1"/>
-      <c r="H1820" s="3"/>
-      <c r="I1820" s="3"/>
-      <c r="J1820" s="1"/>
-      <c r="K1820" s="3"/>
-      <c r="L1820" s="1"/>
-      <c r="M1820" s="1"/>
-      <c r="N1820" s="1"/>
-      <c r="O1820" s="1"/>
-      <c r="P1820" s="1"/>
-      <c r="Q1820" s="1"/>
-    </row>
-    <row r="1821" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1821" s="1"/>
-      <c r="B1821" s="1"/>
-      <c r="C1821" s="1"/>
-      <c r="D1821" s="1"/>
-      <c r="E1821" s="3"/>
-      <c r="F1821" s="4"/>
-      <c r="G1821" s="1"/>
-      <c r="H1821" s="3"/>
-      <c r="I1821" s="3"/>
-      <c r="J1821" s="1"/>
-      <c r="K1821" s="3"/>
-      <c r="L1821" s="1"/>
-      <c r="M1821" s="1"/>
-      <c r="N1821" s="1"/>
-      <c r="O1821" s="1"/>
-      <c r="P1821" s="1"/>
-      <c r="Q1821" s="1"/>
-    </row>
-    <row r="1822" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1822" s="1"/>
-      <c r="B1822" s="1"/>
-      <c r="C1822" s="1"/>
-      <c r="D1822" s="1"/>
-      <c r="E1822" s="3"/>
-      <c r="F1822" s="4"/>
-      <c r="G1822" s="1"/>
-      <c r="H1822" s="3"/>
-      <c r="I1822" s="3"/>
-      <c r="J1822" s="1"/>
-      <c r="K1822" s="3"/>
-      <c r="L1822" s="1"/>
-      <c r="M1822" s="1"/>
-      <c r="N1822" s="1"/>
-      <c r="O1822" s="1"/>
-      <c r="P1822" s="1"/>
-      <c r="Q1822" s="1"/>
-    </row>
-    <row r="1823" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1823" s="1"/>
-      <c r="B1823" s="1"/>
-      <c r="C1823" s="1"/>
-      <c r="D1823" s="1"/>
-      <c r="E1823" s="3"/>
-      <c r="F1823" s="4"/>
-      <c r="G1823" s="1"/>
-      <c r="H1823" s="3"/>
-      <c r="I1823" s="3"/>
-      <c r="J1823" s="1"/>
-      <c r="K1823" s="3"/>
-      <c r="L1823" s="1"/>
-      <c r="M1823" s="1"/>
-      <c r="N1823" s="1"/>
-      <c r="O1823" s="1"/>
-      <c r="P1823" s="1"/>
-      <c r="Q1823" s="1"/>
-    </row>
-    <row r="1824" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1824" s="1"/>
-      <c r="B1824" s="1"/>
-      <c r="C1824" s="1"/>
-      <c r="D1824" s="1"/>
-      <c r="E1824" s="3"/>
-      <c r="F1824" s="4"/>
-      <c r="G1824" s="1"/>
-      <c r="H1824" s="3"/>
-      <c r="I1824" s="3"/>
-      <c r="J1824" s="1"/>
-      <c r="K1824" s="3"/>
-      <c r="L1824" s="1"/>
-      <c r="M1824" s="1"/>
-      <c r="N1824" s="1"/>
-      <c r="O1824" s="1"/>
-      <c r="P1824" s="1"/>
-      <c r="Q1824" s="1"/>
-    </row>
-    <row r="1825" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1825" s="1"/>
-      <c r="B1825" s="1"/>
-      <c r="C1825" s="1"/>
-      <c r="D1825" s="1"/>
-      <c r="E1825" s="3"/>
-      <c r="F1825" s="4"/>
-      <c r="G1825" s="1"/>
-      <c r="H1825" s="3"/>
-      <c r="I1825" s="3"/>
-      <c r="J1825" s="1"/>
-      <c r="K1825" s="3"/>
-      <c r="L1825" s="1"/>
-      <c r="M1825" s="1"/>
-      <c r="N1825" s="1"/>
-      <c r="O1825" s="1"/>
-      <c r="P1825" s="1"/>
-      <c r="Q1825" s="1"/>
-    </row>
-    <row r="1826" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1826" s="1"/>
-      <c r="B1826" s="1"/>
-      <c r="C1826" s="1"/>
-      <c r="D1826" s="1"/>
-      <c r="E1826" s="3"/>
-      <c r="F1826" s="4"/>
-      <c r="G1826" s="1"/>
-      <c r="H1826" s="3"/>
-      <c r="I1826" s="3"/>
-      <c r="J1826" s="1"/>
-      <c r="K1826" s="3"/>
-      <c r="L1826" s="1"/>
-      <c r="M1826" s="1"/>
-      <c r="N1826" s="1"/>
-      <c r="O1826" s="1"/>
-      <c r="P1826" s="1"/>
-      <c r="Q1826" s="1"/>
-    </row>
-    <row r="1827" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1827" s="1"/>
-      <c r="B1827" s="1"/>
-      <c r="C1827" s="1"/>
-      <c r="D1827" s="1"/>
-      <c r="E1827" s="3"/>
-      <c r="F1827" s="4"/>
-      <c r="G1827" s="1"/>
-      <c r="H1827" s="3"/>
-      <c r="I1827" s="3"/>
-      <c r="J1827" s="1"/>
-      <c r="K1827" s="3"/>
-      <c r="L1827" s="1"/>
-      <c r="M1827" s="1"/>
-      <c r="N1827" s="1"/>
-      <c r="O1827" s="1"/>
-      <c r="P1827" s="1"/>
-      <c r="Q1827" s="1"/>
-    </row>
-    <row r="1828" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1828" s="1"/>
-      <c r="B1828" s="1"/>
-      <c r="C1828" s="1"/>
-      <c r="D1828" s="1"/>
-      <c r="E1828" s="3"/>
-      <c r="F1828" s="4"/>
-      <c r="G1828" s="1"/>
-      <c r="H1828" s="3"/>
-      <c r="I1828" s="3"/>
-      <c r="J1828" s="1"/>
-      <c r="K1828" s="3"/>
-      <c r="L1828" s="1"/>
-      <c r="M1828" s="1"/>
-      <c r="N1828" s="1"/>
-      <c r="O1828" s="1"/>
-      <c r="P1828" s="1"/>
-      <c r="Q1828" s="1"/>
-    </row>
-    <row r="1829" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1829" s="1"/>
-      <c r="B1829" s="1"/>
-      <c r="C1829" s="1"/>
-      <c r="D1829" s="1"/>
-      <c r="E1829" s="3"/>
-      <c r="F1829" s="4"/>
-      <c r="G1829" s="1"/>
-      <c r="H1829" s="3"/>
-      <c r="I1829" s="3"/>
-      <c r="J1829" s="1"/>
-      <c r="K1829" s="3"/>
-      <c r="L1829" s="1"/>
-      <c r="M1829" s="1"/>
-      <c r="N1829" s="1"/>
-      <c r="O1829" s="1"/>
-      <c r="P1829" s="1"/>
-      <c r="Q1829" s="1"/>
-    </row>
-    <row r="1830" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1830" s="1"/>
-      <c r="B1830" s="1"/>
-      <c r="C1830" s="1"/>
-      <c r="D1830" s="1"/>
-      <c r="E1830" s="3"/>
-      <c r="F1830" s="4"/>
-      <c r="G1830" s="1"/>
-      <c r="H1830" s="3"/>
-      <c r="I1830" s="3"/>
-      <c r="J1830" s="1"/>
-      <c r="K1830" s="3"/>
-      <c r="L1830" s="1"/>
-      <c r="M1830" s="1"/>
-      <c r="N1830" s="1"/>
-      <c r="O1830" s="1"/>
-      <c r="P1830" s="1"/>
-      <c r="Q1830" s="1"/>
-    </row>
-    <row r="1831" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1831" s="1"/>
-      <c r="B1831" s="1"/>
-      <c r="C1831" s="1"/>
-      <c r="D1831" s="1"/>
-      <c r="E1831" s="3"/>
-      <c r="F1831" s="4"/>
-      <c r="G1831" s="1"/>
-      <c r="H1831" s="3"/>
-      <c r="I1831" s="3"/>
-      <c r="J1831" s="1"/>
-      <c r="K1831" s="3"/>
-      <c r="L1831" s="1"/>
-      <c r="M1831" s="1"/>
-      <c r="N1831" s="1"/>
-      <c r="O1831" s="1"/>
-      <c r="P1831" s="1"/>
-      <c r="Q1831" s="1"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:Q9" xr:uid="{4D89D315-BE22-46FD-AAF0-E18D0A7956C9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
